--- a/SU1050791/Using Excel LAMBDAs to mimic transposed table.xlsx
+++ b/SU1050791/Using Excel LAMBDAs to mimic transposed table.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D8FDB7-8E80-4B27-A23D-7D8F26AC38F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52219A53-1FFD-44EE-8914-9512E8089163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2370" yWindow="855" windowWidth="47445" windowHeight="19155" xr2:uid="{0F74DA79-CFAD-4F6F-B22B-648A2D487A97}"/>
   </bookViews>
@@ -11,32 +11,32 @@
     <sheet name="Mirror Calculations" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="__Actual_R_Ratio">'Mirror Calculations'!$E$16</definedName>
-    <definedName name="__Calc_IR1_mA">'Mirror Calculations'!$E$15</definedName>
-    <definedName name="__Calc_IR3_mA">'Mirror Calculations'!$E$20</definedName>
-    <definedName name="__Calc_Load_mA">'Mirror Calculations'!$E$17</definedName>
-    <definedName name="__Ideal_R1">'Mirror Calculations'!$E$12</definedName>
-    <definedName name="__Ideal_R2">'Mirror Calculations'!$E$10</definedName>
-    <definedName name="__Ideal_R3">'Mirror Calculations'!$E$21</definedName>
-    <definedName name="__Ideal_R4">'Mirror Calculations'!$E$22</definedName>
-    <definedName name="__Ideal_R5">'Mirror Calculations'!$E$14</definedName>
-    <definedName name="__IR1_mA">'Mirror Calculations'!$E$7</definedName>
-    <definedName name="__Pdiss_R2">'Mirror Calculations'!$E$18</definedName>
-    <definedName name="__Selected_R1">'Mirror Calculations'!$E$13</definedName>
-    <definedName name="__Selected_R2">'Mirror Calculations'!$E$11</definedName>
-    <definedName name="__Target_IR2_mA">'Mirror Calculations'!$E$8</definedName>
-    <definedName name="__Target_Load_mA">'Mirror Calculations'!$E$5</definedName>
-    <definedName name="__Target_R_Ratio">'Mirror Calculations'!$E$9</definedName>
-    <definedName name="__VC">'Mirror Calculations'!$E$19</definedName>
-    <definedName name="__VCC">'Mirror Calculations'!$E$2</definedName>
-    <definedName name="__VD">'Mirror Calculations'!$E$4</definedName>
-    <definedName name="__VDS_Q3">'Mirror Calculations'!$E$25</definedName>
-    <definedName name="__VEB_Q2">'Mirror Calculations'!$E$27</definedName>
-    <definedName name="__VEC_Q1">'Mirror Calculations'!$E$26</definedName>
-    <definedName name="__VEC_Q2">'Mirror Calculations'!$E$28</definedName>
-    <definedName name="__VEE">'Mirror Calculations'!$E$3</definedName>
-    <definedName name="__VG">'Mirror Calculations'!$E$6</definedName>
-    <definedName name="__VMB">'Mirror Calculations'!$E$23</definedName>
+    <definedName name="__Actual_R_Ratio">'Mirror Calculations'!$F$16</definedName>
+    <definedName name="__Calc_IR1_mA">'Mirror Calculations'!$F$15</definedName>
+    <definedName name="__Calc_IR3_mA">'Mirror Calculations'!$F$20</definedName>
+    <definedName name="__Calc_Load_mA">'Mirror Calculations'!$F$17</definedName>
+    <definedName name="__Ideal_R1">'Mirror Calculations'!$F$12</definedName>
+    <definedName name="__Ideal_R2">'Mirror Calculations'!$F$10</definedName>
+    <definedName name="__Ideal_R3">'Mirror Calculations'!$F$21</definedName>
+    <definedName name="__Ideal_R4">'Mirror Calculations'!$F$22</definedName>
+    <definedName name="__Ideal_R5">'Mirror Calculations'!$F$14</definedName>
+    <definedName name="__IR1_mA">'Mirror Calculations'!$F$7</definedName>
+    <definedName name="__Pdiss_R2">'Mirror Calculations'!$F$18</definedName>
+    <definedName name="__Selected_R1">'Mirror Calculations'!$F$13</definedName>
+    <definedName name="__Selected_R2">'Mirror Calculations'!$F$11</definedName>
+    <definedName name="__Target_IR2_mA">'Mirror Calculations'!$F$8</definedName>
+    <definedName name="__Target_Load_mA">'Mirror Calculations'!$F$5</definedName>
+    <definedName name="__Target_R_Ratio">'Mirror Calculations'!$F$9</definedName>
+    <definedName name="__VC">'Mirror Calculations'!$F$19</definedName>
+    <definedName name="__VCC">'Mirror Calculations'!$F$2</definedName>
+    <definedName name="__VD">'Mirror Calculations'!$F$4</definedName>
+    <definedName name="__VDS_Q3">'Mirror Calculations'!$F$25</definedName>
+    <definedName name="__VEB_Q2">'Mirror Calculations'!$F$27</definedName>
+    <definedName name="__VEC_Q1">'Mirror Calculations'!$F$26</definedName>
+    <definedName name="__VEC_Q2">'Mirror Calculations'!$F$28</definedName>
+    <definedName name="__VEE">'Mirror Calculations'!$F$3</definedName>
+    <definedName name="__VG">'Mirror Calculations'!$F$6</definedName>
+    <definedName name="__VMB">'Mirror Calculations'!$F$23</definedName>
     <definedName name="_IR1">_xlfn.LAMBDA(_xlpm.col,MyVal(__IR1_mA,_xlpm.col))</definedName>
     <definedName name="_IR3">_xlfn.LAMBDA(_xlpm.col,MyVal(__Calc_IR3_mA,_xlpm.col))</definedName>
     <definedName name="_R1">_xlfn.LAMBDA(_xlpm.col,MyVal(__Selected_R1,_xlpm.col))</definedName>
@@ -44,15 +44,15 @@
     <definedName name="Actual_IR1">_xlfn.LAMBDA(_xlpm.col,MyVal(__Calc_IR1_mA,_xlpm.col))</definedName>
     <definedName name="Actual_Load">_xlfn.LAMBDA(_xlpm.col,MyVal(__Calc_Load_mA,_xlpm.col))</definedName>
     <definedName name="Actual_Ratio">_xlfn.LAMBDA(_xlpm.col,MyVal(__Actual_R_Ratio,_xlpm.col))</definedName>
-    <definedName name="CALC_TABLE">'Mirror Calculations'!$E$2:$K$28</definedName>
+    <definedName name="CALC_TABLE">'Mirror Calculations'!$F$2:$L$28</definedName>
     <definedName name="GET">_xlfn.LAMBDA(_xlpm.key,INDEX(CALC_TABLE,MATCH(_xlpm.key,KEY_LIST,0),COLUMN()-_xlfn.SINGLE(COLUMN(CALC_TABLE))+1))</definedName>
-    <definedName name="HEADERS">'Mirror Calculations'!$E$1:$K$1</definedName>
+    <definedName name="HEADERS">'Mirror Calculations'!$F$1:$L$1</definedName>
     <definedName name="Ideal_R1">_xlfn.LAMBDA(_xlpm.col,MyVal(__Ideal_R1,_xlpm.col))</definedName>
     <definedName name="Ideal_R2">_xlfn.LAMBDA(_xlpm.col,MyVal(__Ideal_R2,_xlpm.col))</definedName>
     <definedName name="Ideal_R3">_xlfn.LAMBDA(_xlpm.col,MyVal(__Ideal_R3,_xlpm.col))</definedName>
     <definedName name="Ideal_R4">_xlfn.LAMBDA(_xlpm.col,MyVal(__Ideal_R4,_xlpm.col))</definedName>
     <definedName name="Ideal_R5">_xlfn.LAMBDA(_xlpm.col,MyVal(__Ideal_R5,_xlpm.col))</definedName>
-    <definedName name="KEY_LIST">'Mirror Calculations'!$E$2:$E$28</definedName>
+    <definedName name="KEY_LIST">'Mirror Calculations'!$F$2:$F$28</definedName>
     <definedName name="Load">_xlfn.LAMBDA(_xlpm.col,MyVal(__Target_Load_mA,_xlpm.col))</definedName>
     <definedName name="MyVal">_xlfn.LAMBDA(_xlpm.key,_xlpm.column, VLOOKUP(_xlpm.key,CALC_TABLE,MATCH(_xlpm.column,HEADERS,0),FALSE))</definedName>
     <definedName name="Pdiss_R2">_xlfn.LAMBDA(_xlpm.col,MyVal(__Pdiss_R2,_xlpm.col))</definedName>
@@ -256,15 +256,6 @@
     <t>LAMBDA (λ) call to get value by named row and relative column header</t>
   </si>
   <si>
-    <t>Formulas for column "I" using cell addresses</t>
-  </si>
-  <si>
-    <t>Formulas for column "G", using a named λ function to wrap each call to MyVal(key, column)</t>
-  </si>
-  <si>
-    <t>Formulas for column "F", using single named λ function "MyVal(key, column)" to get all values</t>
-  </si>
-  <si>
     <t>GET version</t>
   </si>
   <si>
@@ -280,8 +271,17 @@
     <t>λ wrappers to shorten to just relative column header</t>
   </si>
   <si>
-    <t>Formulas for column "H", using single named λ function "GET(key)" to get all values relative to current column
+    <t>Formulas for column "G", using single named λ function "MyVal(key, column)" to get all values</t>
+  </si>
+  <si>
+    <t>Formulas for column "H", using a named λ function to wrap each call to MyVal(key, column)</t>
+  </si>
+  <si>
+    <t>Formulas for column "I", using single named λ function "GET(key)" to get all values relative to current column
 NOTE: Can use wrappers to have, for ex, "=_IR1()+Load()", but requires Excel 365(?) support for optional args in λs</t>
+  </si>
+  <si>
+    <t>Formulas for column "J" using cell addresses</t>
   </si>
 </sst>
 </file>
@@ -418,27 +418,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="22">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -469,26 +454,6 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -556,43 +521,213 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3"/>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="4" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="4" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -600,24 +735,53 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="7" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -629,7 +793,19 @@
     <cellStyle name="Note" xfId="7" builtinId="10"/>
     <cellStyle name="Output" xfId="4" builtinId="21"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -665,8 +841,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>3802569</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>3564444</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>28898</xdr:rowOff>
     </xdr:to>
@@ -1021,10 +1197,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79715815-7508-4051-9140-8EE00FCAA99A}">
-  <dimension ref="A1:W34"/>
+  <dimension ref="A1:X34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,1996 +1209,2031 @@
     <col min="2" max="2" width="36.85546875" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="9" max="11" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="3.5703125" style="23" customWidth="1"/>
-    <col min="13" max="13" width="136.42578125" customWidth="1"/>
-    <col min="14" max="14" width="77" customWidth="1"/>
-    <col min="15" max="15" width="105.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="38.28515625" customWidth="1"/>
-    <col min="17" max="17" width="29.42578125" customWidth="1"/>
+    <col min="5" max="5" width="3.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="10" max="12" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="3.5703125" customWidth="1"/>
+    <col min="14" max="14" width="136.42578125" customWidth="1"/>
+    <col min="15" max="15" width="77" customWidth="1"/>
+    <col min="16" max="16" width="105.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="38.28515625" customWidth="1"/>
+    <col min="18" max="18" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="31.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="str">
-        <f>F1</f>
+    <row r="1" spans="1:24" ht="31.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="str">
+        <f>G1</f>
         <v>V1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="14"/>
+      <c r="F1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="14"/>
+      <c r="N1" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="21" t="s">
+      <c r="Q1" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="W1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="N1" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="R1" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="S1" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="T1" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="V1" s="12" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" cm="1">
+    <row r="2" spans="1:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" cm="1">
         <f t="array" ref="A2">MyVal(__VCC,A$1)</f>
         <v>4.7</v>
       </c>
-      <c r="B2" s="16" t="str">
+      <c r="B2" s="8" t="str">
         <f t="shared" ref="B2:B7" ca="1" si="0">_xlfn.FORMULATEXT(A2)</f>
         <v>=MyVal(__VCC,A$1)</v>
       </c>
-      <c r="C2" s="16" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(R2)</f>
+      <c r="C2" s="8" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(S2)</f>
         <v>=VCC(A$1)</v>
       </c>
-      <c r="D2" s="16" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(S2)</f>
+      <c r="D2" s="8" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(T2)</f>
         <v>=GET(__VCC)</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="4">
+      <c r="G2" s="22">
         <v>4.7</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="22">
         <v>4.7</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="22">
         <v>4.7</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="22">
         <v>4.7</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="22">
         <v>0</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="23">
         <v>0</v>
       </c>
-      <c r="L2" s="24"/>
-      <c r="M2" t="str">
-        <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F2),"")</f>
-        <v/>
-      </c>
-      <c r="P2" t="str" cm="1">
-        <f t="array" aca="1" ref="P2:P28" ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(H2:H28),"")</f>
+      <c r="M2" s="14"/>
+      <c r="N2" t="str">
+        <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(G2),"")</f>
         <v/>
       </c>
       <c r="Q2" t="str" cm="1">
-        <f t="array" ref="Q2">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,N2),FALSE))),"")</f>
-        <v/>
-      </c>
-      <c r="R2" cm="1">
-        <f t="array" ref="R2">VCC(A$1)</f>
+        <f t="array" aca="1" ref="Q2:Q28" ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(I2:I28),"")</f>
+        <v/>
+      </c>
+      <c r="R2" t="str" cm="1">
+        <f t="array" ref="R2">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,O2),FALSE))),"")</f>
+        <v/>
+      </c>
+      <c r="S2" cm="1">
+        <f t="array" ref="S2">VCC(A$1)</f>
         <v>4.7</v>
       </c>
-      <c r="S2" t="e" cm="1">
-        <f t="array" ref="S2">GET(__VCC)</f>
+      <c r="T2" t="e" cm="1">
+        <f t="array" ref="T2">GET(__VCC)</f>
         <v>#REF!</v>
       </c>
-      <c r="T2" t="b" cm="1">
-        <f t="array" ref="T2:T28">R2:R28=A2:A28</f>
+      <c r="U2" t="b" cm="1">
+        <f t="array" ref="U2:U28">S2:S28=A2:A28</f>
         <v>1</v>
       </c>
-      <c r="V2" s="19" t="e" cm="1">
-        <f t="array" ref="V2">_xlfn.LAMBDA(_xlpm.row,_xlpm.column, INDEX(CALC_TABLE,_xlpm.row,_xlpm.column))(ROW(),COLUMN())</f>
+      <c r="W2" s="11" t="e" cm="1">
+        <f t="array" ref="W2">_xlfn.LAMBDA(_xlpm.row,_xlpm.column, INDEX(CALC_TABLE,_xlpm.row,_xlpm.column))(ROW(),COLUMN())</f>
         <v>#REF!</v>
       </c>
-      <c r="W2" t="e" cm="1">
-        <f t="array" ref="W2">INDEX(CALC_TABLE,ROW()-_xlfn.SINGLE(ROW(CALC_TABLE))+1,COLUMN()-_xlfn.SINGLE(COLUMN(CALC_TABLE))+1)</f>
+      <c r="X2" t="e" cm="1">
+        <f t="array" ref="X2">INDEX(CALC_TABLE,ROW()-_xlfn.SINGLE(ROW(CALC_TABLE))+1,COLUMN()-_xlfn.SINGLE(COLUMN(CALC_TABLE))+1)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" cm="1">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" cm="1">
         <f t="array" ref="A3">MyVal(__VEE,A$1)</f>
         <v>-3.2</v>
       </c>
-      <c r="B3" s="16" t="str">
+      <c r="B3" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=MyVal(__VEE,A$1)</v>
       </c>
-      <c r="C3" s="16" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(R3)</f>
+      <c r="C3" s="8" t="str">
+        <f t="shared" ref="C3:C23" ca="1" si="1">_xlfn.FORMULATEXT(S3)</f>
         <v>=VEE(A$1)</v>
       </c>
-      <c r="D3" s="16" t="str">
-        <f t="shared" ref="D3:D28" ca="1" si="1">_xlfn.FORMULATEXT(S3)</f>
+      <c r="D3" s="8" t="str">
+        <f t="shared" ref="D3:D28" ca="1" si="2">_xlfn.FORMULATEXT(T3)</f>
         <v>=GET(__VEE)</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="4">
+      <c r="G3" s="22">
         <v>-3.2</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="22">
         <v>-3.2</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="22">
         <v>-3.2</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="22">
         <v>-3.2</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="22">
         <v>0</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="23">
         <v>0</v>
       </c>
-      <c r="L3" s="24"/>
-      <c r="M3" t="str">
-        <f t="shared" ref="M3:M28" ca="1" si="2">_xlfn.IFNA(_xlfn.FORMULATEXT(F3),"")</f>
-        <v/>
-      </c>
-      <c r="P3" t="str">
+      <c r="M3" s="14"/>
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N28" ca="1" si="3">_xlfn.IFNA(_xlfn.FORMULATEXT(G3),"")</f>
+        <v/>
+      </c>
+      <c r="Q3" t="str">
         <f ca="1"/>
         <v/>
       </c>
-      <c r="Q3" t="str" cm="1">
-        <f t="array" ref="Q3">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,N3),FALSE))),"")</f>
-        <v/>
-      </c>
-      <c r="R3" cm="1">
-        <f t="array" ref="R3">VEE(A$1)</f>
+      <c r="R3" t="str" cm="1">
+        <f t="array" ref="R3">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,O3),FALSE))),"")</f>
+        <v/>
+      </c>
+      <c r="S3" cm="1">
+        <f t="array" ref="S3">VEE(A$1)</f>
         <v>-3.2</v>
       </c>
-      <c r="S3" t="e" cm="1">
-        <f t="array" ref="S3">GET(__VEE)</f>
+      <c r="T3" t="e" cm="1">
+        <f t="array" ref="T3">GET(__VEE)</f>
         <v>#REF!</v>
       </c>
-      <c r="T3" t="b">
+      <c r="U3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" cm="1">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" cm="1">
         <f t="array" ref="A4">MyVal(__VD,A$1)</f>
         <v>4.5</v>
       </c>
-      <c r="B4" s="16" t="str">
+      <c r="B4" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=MyVal(__VD,A$1)</v>
       </c>
-      <c r="C4" s="16" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(R4)</f>
+      <c r="C4" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>=VD(A$1)</v>
       </c>
-      <c r="D4" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="D4" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>=GET(__VD)</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="14"/>
+      <c r="F4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="4">
+      <c r="G4" s="22">
         <v>4.5</v>
       </c>
-      <c r="G4" s="4">
+      <c r="H4" s="22">
         <v>4.5</v>
       </c>
-      <c r="H4" s="4">
+      <c r="I4" s="22">
         <v>4.5</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="22">
         <v>4.5</v>
       </c>
-      <c r="J4" s="4">
+      <c r="K4" s="22">
         <v>0</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="23">
         <v>0</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="P4" t="str">
+      <c r="M4" s="14"/>
+      <c r="N4" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="Q4" t="str">
         <f ca="1"/>
         <v/>
       </c>
-      <c r="Q4" t="str" cm="1">
-        <f t="array" ref="Q4">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,N4),FALSE))),"")</f>
-        <v/>
-      </c>
-      <c r="R4" cm="1">
-        <f t="array" ref="R4">VD(A$1)</f>
+      <c r="R4" t="str" cm="1">
+        <f t="array" ref="R4">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,O4),FALSE))),"")</f>
+        <v/>
+      </c>
+      <c r="S4" cm="1">
+        <f t="array" ref="S4">VD(A$1)</f>
         <v>4.5</v>
       </c>
-      <c r="S4" t="e" cm="1">
-        <f t="array" ref="S4">GET(__VD)</f>
+      <c r="T4" t="e" cm="1">
+        <f t="array" ref="T4">GET(__VD)</f>
         <v>#REF!</v>
       </c>
-      <c r="T4" t="b">
+      <c r="U4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" cm="1">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" cm="1">
         <f t="array" ref="A5">MyVal(__Target_Load_mA,A$1)</f>
         <v>250</v>
       </c>
-      <c r="B5" s="16" t="str">
+      <c r="B5" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=MyVal(__Target_Load_mA,A$1)</v>
       </c>
-      <c r="C5" s="16" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(R5)</f>
+      <c r="C5" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>=Load(A$1)</v>
       </c>
-      <c r="D5" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="D5" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>=GET(__Target_Load_mA)</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="14"/>
+      <c r="F5" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="4">
+      <c r="G5" s="22">
         <v>250</v>
       </c>
-      <c r="G5" s="4">
+      <c r="H5" s="22">
         <v>250</v>
       </c>
-      <c r="H5" s="4">
+      <c r="I5" s="22">
         <v>250</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="22">
         <v>250</v>
       </c>
-      <c r="J5" s="4">
+      <c r="K5" s="22">
         <v>0</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="23">
         <v>0</v>
       </c>
-      <c r="L5" s="24"/>
-      <c r="M5" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="P5" t="str">
+      <c r="M5" s="14"/>
+      <c r="N5" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="Q5" t="str">
         <f ca="1"/>
         <v/>
       </c>
-      <c r="Q5" t="str" cm="1">
-        <f t="array" ref="Q5">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,N5),FALSE))),"")</f>
-        <v/>
-      </c>
-      <c r="R5" cm="1">
-        <f t="array" ref="R5">Load(A$1)</f>
+      <c r="R5" t="str" cm="1">
+        <f t="array" ref="R5">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,O5),FALSE))),"")</f>
+        <v/>
+      </c>
+      <c r="S5" cm="1">
+        <f t="array" ref="S5">Load(A$1)</f>
         <v>250</v>
       </c>
-      <c r="S5" t="e" cm="1">
-        <f t="array" ref="S5">GET(__Target_Load_mA)</f>
+      <c r="T5" t="e" cm="1">
+        <f t="array" ref="T5">GET(__Target_Load_mA)</f>
         <v>#REF!</v>
       </c>
-      <c r="T5" t="b">
+      <c r="U5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" cm="1">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" cm="1">
         <f t="array" ref="A6">MyVal(__VG,A$1)</f>
         <v>-0.72</v>
       </c>
-      <c r="B6" s="16" t="str">
+      <c r="B6" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=MyVal(__VG,A$1)</v>
       </c>
-      <c r="C6" s="16" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(R6)</f>
+      <c r="C6" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>=VG(A$1)</v>
       </c>
-      <c r="D6" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="D6" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>=GET(__VG)</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="14"/>
+      <c r="F6" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="4">
+      <c r="G6" s="22">
         <v>-0.72</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="22">
         <v>-0.72</v>
       </c>
-      <c r="H6" s="4">
+      <c r="I6" s="22">
         <v>-0.72</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="22">
         <v>-0.72</v>
       </c>
-      <c r="J6" s="4">
+      <c r="K6" s="22">
         <v>0</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="23">
         <v>0</v>
       </c>
-      <c r="L6" s="24"/>
-      <c r="M6" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="P6" t="str">
+      <c r="M6" s="14"/>
+      <c r="N6" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="Q6" t="str">
         <f ca="1"/>
         <v/>
       </c>
-      <c r="Q6" t="str" cm="1">
-        <f t="array" ref="Q6">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,N6),FALSE))),"")</f>
-        <v/>
-      </c>
-      <c r="R6" cm="1">
-        <f t="array" ref="R6">VG(A$1)</f>
+      <c r="R6" t="str" cm="1">
+        <f t="array" ref="R6">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,O6),FALSE))),"")</f>
+        <v/>
+      </c>
+      <c r="S6" cm="1">
+        <f t="array" ref="S6">VG(A$1)</f>
         <v>-0.72</v>
       </c>
-      <c r="S6" t="e" cm="1">
-        <f t="array" ref="S6">GET(__VG)</f>
+      <c r="T6" t="e" cm="1">
+        <f t="array" ref="T6">GET(__VG)</f>
         <v>#REF!</v>
       </c>
-      <c r="T6" t="b">
+      <c r="U6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" cm="1">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" cm="1">
         <f t="array" ref="A7">MyVal(__IR1_mA,A$1)</f>
         <v>4</v>
       </c>
-      <c r="B7" s="16" t="str">
+      <c r="B7" s="8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>=MyVal(__IR1_mA,A$1)</v>
       </c>
-      <c r="C7" s="16" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(R7)</f>
+      <c r="C7" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>=_IR1(A$1)</v>
       </c>
-      <c r="D7" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="D7" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>=GET(__IR1_mA)</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="14"/>
+      <c r="F7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="4">
+      <c r="G7" s="22">
         <v>4</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="22">
         <v>4</v>
       </c>
-      <c r="H7" s="4">
+      <c r="I7" s="22">
         <v>4</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="22">
         <v>4</v>
       </c>
-      <c r="J7" s="4">
+      <c r="K7" s="22">
         <v>0</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="23">
         <v>0</v>
       </c>
-      <c r="L7" s="24"/>
-      <c r="M7" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="P7" t="str">
+      <c r="M7" s="14"/>
+      <c r="N7" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="Q7" t="str">
         <f ca="1"/>
         <v/>
       </c>
-      <c r="Q7" t="str" cm="1">
-        <f t="array" ref="Q7">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,N7),FALSE))),"")</f>
-        <v/>
-      </c>
-      <c r="R7" cm="1">
-        <f t="array" ref="R7">_IR1(A$1)</f>
+      <c r="R7" t="str" cm="1">
+        <f t="array" ref="R7">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,O7),FALSE))),"")</f>
+        <v/>
+      </c>
+      <c r="S7" cm="1">
+        <f t="array" ref="S7">_IR1(A$1)</f>
         <v>4</v>
       </c>
-      <c r="S7" t="e" cm="1">
-        <f t="array" ref="S7">GET(__IR1_mA)</f>
+      <c r="T7" t="e" cm="1">
+        <f t="array" ref="T7">GET(__IR1_mA)</f>
         <v>#REF!</v>
       </c>
-      <c r="T7" t="b">
+      <c r="U7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" cm="1">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" cm="1">
         <f t="array" ref="A8">MyVal(__Target_IR2_mA,A$1)</f>
         <v>254</v>
       </c>
-      <c r="B8" s="16" t="str">
+      <c r="B8" s="8" t="str">
         <f ca="1">_xlfn.FORMULATEXT(A8)</f>
         <v>=MyVal(__Target_IR2_mA,A$1)</v>
       </c>
-      <c r="C8" s="16" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(R8)</f>
+      <c r="C8" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>=Target_IR2(A$1)</v>
       </c>
-      <c r="D8" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="D8" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>=GET(__Target_IR2_mA)</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="14"/>
+      <c r="F8" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="8" cm="1">
-        <f t="array" ref="F8">MyVal(__Target_Load_mA,F$1)+MyVal(__IR1_mA,F$1)</f>
+      <c r="G8" s="3" cm="1">
+        <f t="array" ref="G8">MyVal(__Target_Load_mA,G$1)+MyVal(__IR1_mA,G$1)</f>
         <v>254</v>
       </c>
-      <c r="G8" s="8" cm="1">
-        <f t="array" ref="G8">_IR1(G$1)+Load(G$1)</f>
+      <c r="H8" s="3" cm="1">
+        <f t="array" ref="H8">_IR1(H$1)+Load(H$1)</f>
         <v>254</v>
       </c>
-      <c r="H8" s="8" cm="1">
-        <f t="array" ref="H8">GET(__Target_Load_mA)+GET(__IR1_mA)</f>
+      <c r="I8" s="3" cm="1">
+        <f t="array" ref="I8">GET(__Target_Load_mA)+GET(__IR1_mA)</f>
         <v>254</v>
       </c>
-      <c r="I8" s="8">
-        <f>I7+I5</f>
+      <c r="J8" s="3">
+        <f>J7+J5</f>
         <v>254</v>
       </c>
-      <c r="J8" s="8">
-        <f t="shared" ref="J8:K8" si="3">J7+J5</f>
+      <c r="K8" s="3">
+        <f t="shared" ref="K8:L8" si="4">K7+K5</f>
         <v>0</v>
       </c>
-      <c r="K8" s="8">
-        <f t="shared" si="3"/>
+      <c r="L8" s="25">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L8" s="24"/>
-      <c r="M8" s="15" t="str">
-        <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F8),"")</f>
-        <v>=MyVal(__Target_Load_mA,F$1)+MyVal(__IR1_mA,F$1)</v>
-      </c>
-      <c r="N8" s="15" t="str">
+      <c r="M8" s="14"/>
+      <c r="N8" s="7" t="str">
         <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(G8),"")</f>
-        <v>=_IR1(G$1)+Load(G$1)</v>
-      </c>
-      <c r="O8" s="15" t="str">
-        <f t="shared" ref="O8:O10" ca="1" si="4">_xlfn.IFNA(_xlfn.FORMULATEXT(H8),"")</f>
+        <v>=MyVal(__Target_Load_mA,G$1)+MyVal(__IR1_mA,G$1)</v>
+      </c>
+      <c r="O8" s="7" t="str">
+        <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(H8),"")</f>
+        <v>=_IR1(H$1)+Load(H$1)</v>
+      </c>
+      <c r="P8" s="7" t="str">
+        <f t="shared" ref="P8:P10" ca="1" si="5">_xlfn.IFNA(_xlfn.FORMULATEXT(I8),"")</f>
         <v>=GET(__Target_Load_mA)+GET(__IR1_mA)</v>
       </c>
-      <c r="P8" s="15" t="str">
+      <c r="Q8" s="7" t="str">
         <f ca="1"/>
         <v>=GET(__Target_Load_mA)+GET(__IR1_mA)</v>
       </c>
-      <c r="Q8" t="str" cm="1">
-        <f t="array" aca="1" ref="Q8" ca="1">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,N8),FALSE))),"")</f>
-        <v/>
-      </c>
-      <c r="R8" cm="1">
-        <f t="array" ref="R8">Target_IR2(A$1)</f>
+      <c r="R8" t="str" cm="1">
+        <f t="array" aca="1" ref="R8" ca="1">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,O8),FALSE))),"")</f>
+        <v/>
+      </c>
+      <c r="S8" cm="1">
+        <f t="array" ref="S8">Target_IR2(A$1)</f>
         <v>254</v>
       </c>
-      <c r="S8" t="e" cm="1">
-        <f t="array" ref="S8">GET(__Target_IR2_mA)</f>
+      <c r="T8" t="e" cm="1">
+        <f t="array" ref="T8">GET(__Target_IR2_mA)</f>
         <v>#REF!</v>
       </c>
-      <c r="T8" t="b">
+      <c r="U8" t="b">
         <v>1</v>
       </c>
-      <c r="V8" t="e" cm="1">
-        <f t="array" ref="V8">INDEX(INDEX_TABLE,MATCH(__Target_Load_mA,KEY_LIST,0),COLUMN()-_xlfn.SINGLE(COLUMN(INDEX_TABLE))+1)</f>
+      <c r="W8" t="e" cm="1">
+        <f t="array" ref="W8">INDEX(INDEX_TABLE,MATCH(__Target_Load_mA,KEY_LIST,0),COLUMN()-_xlfn.SINGLE(COLUMN(INDEX_TABLE))+1)</f>
         <v>#NAME?</v>
       </c>
-      <c r="W8" t="e" cm="1">
-        <f t="array" ref="W8">_xlfn.LAMBDA(_xlpm.key,INDEX(INDEX_TABLE,MATCH(_xlpm.key,KEY_LIST,0),COLUMN()-_xlfn.SINGLE(COLUMN(INDEX_TABLE))+1))(__Target_Load_mA)</f>
+      <c r="X8" t="e" cm="1">
+        <f t="array" ref="X8">_xlfn.LAMBDA(_xlpm.key,INDEX(INDEX_TABLE,MATCH(_xlpm.key,KEY_LIST,0),COLUMN()-_xlfn.SINGLE(COLUMN(INDEX_TABLE))+1))(__Target_Load_mA)</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" cm="1">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" cm="1">
         <f t="array" ref="A9">MyVal(__Target_R_Ratio,A$1)</f>
         <v>63.5</v>
       </c>
-      <c r="B9" s="16" t="str">
-        <f t="shared" ref="B9:B22" ca="1" si="5">_xlfn.FORMULATEXT(A9)</f>
+      <c r="B9" s="8" t="str">
+        <f t="shared" ref="B9:B22" ca="1" si="6">_xlfn.FORMULATEXT(A9)</f>
         <v>=MyVal(__Target_R_Ratio,A$1)</v>
       </c>
-      <c r="C9" s="16" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(R9)</f>
+      <c r="C9" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>=Target_Ratio(A$1)</v>
       </c>
-      <c r="D9" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="D9" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>=GET(__Target_R_Ratio)</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="14"/>
+      <c r="F9" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="3" cm="1">
-        <f t="array" ref="F9">MyVal(__Target_IR2_mA,F$1)/MyVal(__IR1_mA,F$1)</f>
+      <c r="G9" s="26" cm="1">
+        <f t="array" ref="G9">MyVal(__Target_IR2_mA,G$1)/MyVal(__IR1_mA,G$1)</f>
         <v>63.5</v>
       </c>
-      <c r="G9" s="3" cm="1">
-        <f t="array" ref="G9">Target_IR2(G$1)/_IR1(G$1)</f>
+      <c r="H9" s="26" cm="1">
+        <f t="array" ref="H9">Target_IR2(H$1)/_IR1(H$1)</f>
         <v>63.5</v>
       </c>
-      <c r="H9" s="3" cm="1">
-        <f t="array" ref="H9">GET(__Target_IR2_mA)/GET(__IR1_mA)</f>
+      <c r="I9" s="26" cm="1">
+        <f t="array" ref="I9">GET(__Target_IR2_mA)/GET(__IR1_mA)</f>
         <v>63.5</v>
       </c>
-      <c r="I9" s="3">
-        <f>I8/I7</f>
+      <c r="J9" s="26">
+        <f>J8/J7</f>
         <v>63.5</v>
       </c>
-      <c r="J9" s="3" t="e">
-        <f t="shared" ref="J9:K9" si="6">J8/J7</f>
+      <c r="K9" s="26" t="e">
+        <f t="shared" ref="K9:L9" si="7">K8/K7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K9" s="3" t="e">
-        <f t="shared" si="6"/>
+      <c r="L9" s="27" t="e">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="24"/>
-      <c r="M9" s="15" t="str">
-        <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F9),"")</f>
-        <v>=MyVal(__Target_IR2_mA,F$1)/MyVal(__IR1_mA,F$1)</v>
-      </c>
-      <c r="N9" s="15" t="str">
-        <f t="shared" ref="N9:N10" ca="1" si="7">_xlfn.IFNA(_xlfn.FORMULATEXT(G9),"")</f>
-        <v>=Target_IR2(G$1)/_IR1(G$1)</v>
-      </c>
-      <c r="O9" s="15" t="str">
-        <f t="shared" ca="1" si="4"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="7" t="str">
+        <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(G9),"")</f>
+        <v>=MyVal(__Target_IR2_mA,G$1)/MyVal(__IR1_mA,G$1)</v>
+      </c>
+      <c r="O9" s="7" t="str">
+        <f t="shared" ref="O9:O10" ca="1" si="8">_xlfn.IFNA(_xlfn.FORMULATEXT(H9),"")</f>
+        <v>=Target_IR2(H$1)/_IR1(H$1)</v>
+      </c>
+      <c r="P9" s="7" t="str">
+        <f t="shared" ca="1" si="5"/>
         <v>=GET(__Target_IR2_mA)/GET(__IR1_mA)</v>
       </c>
-      <c r="P9" s="15" t="str">
+      <c r="Q9" s="7" t="str">
         <f ca="1"/>
         <v>=GET(__Target_IR2_mA)/GET(__IR1_mA)</v>
       </c>
-      <c r="Q9" t="str" cm="1">
-        <f t="array" aca="1" ref="Q9" ca="1">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,N9),FALSE))),"")</f>
-        <v/>
-      </c>
-      <c r="R9" cm="1">
-        <f t="array" ref="R9">Target_Ratio(A$1)</f>
+      <c r="R9" t="str" cm="1">
+        <f t="array" aca="1" ref="R9" ca="1">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,O9),FALSE))),"")</f>
+        <v/>
+      </c>
+      <c r="S9" cm="1">
+        <f t="array" ref="S9">Target_Ratio(A$1)</f>
         <v>63.5</v>
       </c>
-      <c r="S9" t="e" cm="1">
-        <f t="array" ref="S9">GET(__Target_R_Ratio)</f>
+      <c r="T9" t="e" cm="1">
+        <f t="array" ref="T9">GET(__Target_R_Ratio)</f>
         <v>#REF!</v>
       </c>
-      <c r="T9" t="b">
+      <c r="U9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" cm="1">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" cm="1">
         <f t="array" ref="A10">MyVal(__Ideal_R2,A$1)</f>
         <v>0.78740157480315032</v>
       </c>
-      <c r="B10" s="16" t="str">
+      <c r="B10" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>=MyVal(__Ideal_R2,A$1)</v>
+      </c>
+      <c r="C10" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>=Ideal_R2(A$1)</v>
+      </c>
+      <c r="D10" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>=GET(__Ideal_R2)</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="26" cm="1">
+        <f t="array" ref="G10">(MyVal(__VCC,G$1)-MyVal(__VD,G$1))/(MyVal(__Target_IR2_mA,G$1)/1000)</f>
+        <v>0.78740157480315032</v>
+      </c>
+      <c r="H10" s="26" cm="1">
+        <f t="array" ref="H10">(VCC(A$1)-VD(H$1))/(Target_IR2(H$1)/1000)</f>
+        <v>0.78740157480315032</v>
+      </c>
+      <c r="I10" s="26" cm="1">
+        <f t="array" ref="I10">(GET(__VCC)-GET(__VD))/(GET(__Target_IR2_mA)/1000)</f>
+        <v>0.78740157480315032</v>
+      </c>
+      <c r="J10" s="26">
+        <f>(J2-J4)/(J8/1000)</f>
+        <v>0.78740157480315032</v>
+      </c>
+      <c r="K10" s="26" t="e">
+        <f t="shared" ref="K10:L10" si="9">(K2-K4)/(K8/1000)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L10" s="27" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M10" s="14"/>
+      <c r="N10" s="7" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>=(MyVal(__VCC,G$1)-MyVal(__VD,G$1))/(MyVal(__Target_IR2_mA,G$1)/1000)</v>
+      </c>
+      <c r="O10" s="7" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>=(VCC(A$1)-VD(H$1))/(Target_IR2(H$1)/1000)</v>
+      </c>
+      <c r="P10" s="7" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>=MyVal(__Ideal_R2,A$1)</v>
-      </c>
-      <c r="C10" s="16" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(R10)</f>
-        <v>=Ideal_R2(A$1)</v>
-      </c>
-      <c r="D10" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>=GET(__Ideal_R2)</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="3" cm="1">
-        <f t="array" ref="F10">(MyVal(__VCC,F$1)-MyVal(__VD,F$1))/(MyVal(__Target_IR2_mA,F$1)/1000)</f>
-        <v>0.78740157480315032</v>
-      </c>
-      <c r="G10" s="3" cm="1">
-        <f t="array" ref="G10">(VCC(A$1)-VD(G$1))/(Target_IR2(G$1)/1000)</f>
-        <v>0.78740157480315032</v>
-      </c>
-      <c r="H10" s="3" cm="1">
-        <f t="array" ref="H10">(GET(__VCC)-GET(__VD))/(GET(__Target_IR2_mA)/1000)</f>
-        <v>0.78740157480315032</v>
-      </c>
-      <c r="I10" s="3">
-        <f>(I2-I4)/(I8/1000)</f>
-        <v>0.78740157480315032</v>
-      </c>
-      <c r="J10" s="3" t="e">
-        <f t="shared" ref="J10:K10" si="8">(J2-J4)/(J8/1000)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K10" s="3" t="e">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L10" s="24"/>
-      <c r="M10" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=(MyVal(__VCC,F$1)-MyVal(__VD,F$1))/(MyVal(__Target_IR2_mA,F$1)/1000)</v>
-      </c>
-      <c r="N10" s="15" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>=(VCC(A$1)-VD(G$1))/(Target_IR2(G$1)/1000)</v>
-      </c>
-      <c r="O10" s="15" t="str">
-        <f t="shared" ca="1" si="4"/>
         <v>=(GET(__VCC)-GET(__VD))/(GET(__Target_IR2_mA)/1000)</v>
       </c>
-      <c r="P10" s="15" t="str">
+      <c r="Q10" s="7" t="str">
         <f ca="1"/>
         <v>=(GET(__VCC)-GET(__VD))/(GET(__Target_IR2_mA)/1000)</v>
       </c>
-      <c r="Q10" t="str" cm="1">
-        <f t="array" aca="1" ref="Q10" ca="1">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,N10),FALSE))),"")</f>
-        <v/>
-      </c>
-      <c r="R10" cm="1">
-        <f t="array" ref="R10">Ideal_R2(A$1)</f>
+      <c r="R10" t="str" cm="1">
+        <f t="array" aca="1" ref="R10" ca="1">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,O10),FALSE))),"")</f>
+        <v/>
+      </c>
+      <c r="S10" cm="1">
+        <f t="array" ref="S10">Ideal_R2(A$1)</f>
         <v>0.78740157480315032</v>
       </c>
-      <c r="S10" t="e" cm="1">
-        <f t="array" ref="S10">GET(__Ideal_R2)</f>
+      <c r="T10" t="e" cm="1">
+        <f t="array" ref="T10">GET(__Ideal_R2)</f>
         <v>#REF!</v>
       </c>
-      <c r="T10" t="b">
+      <c r="U10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" cm="1">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" cm="1">
         <f t="array" ref="A11">MyVal(__Selected_R2,A$1)</f>
         <v>0.75</v>
       </c>
-      <c r="B11" s="16" t="str">
-        <f t="shared" ca="1" si="5"/>
+      <c r="B11" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v>=MyVal(__Selected_R2,A$1)</v>
       </c>
-      <c r="C11" s="16" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(R11)</f>
+      <c r="C11" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>=_R2(A$1)</v>
       </c>
-      <c r="D11" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="D11" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>=GET(__Selected_R2)</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="14"/>
+      <c r="F11" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="9">
+      <c r="G11" s="4">
         <v>0.75</v>
       </c>
-      <c r="G11" s="9">
+      <c r="H11" s="4">
         <v>0.75</v>
       </c>
-      <c r="H11" s="9">
+      <c r="I11" s="4">
         <v>0.75</v>
       </c>
-      <c r="I11" s="9">
+      <c r="J11" s="4">
         <v>0.75</v>
       </c>
-      <c r="J11" s="9">
+      <c r="K11" s="4">
         <v>0</v>
       </c>
-      <c r="K11" s="9">
+      <c r="L11" s="29">
         <v>0</v>
       </c>
-      <c r="L11" s="24"/>
-      <c r="M11" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="P11" t="str">
+      <c r="M11" s="14"/>
+      <c r="N11" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="Q11" t="str">
         <f ca="1"/>
         <v/>
       </c>
-      <c r="Q11" t="str" cm="1">
-        <f t="array" ref="Q11">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,N11),FALSE))),"")</f>
-        <v/>
-      </c>
-      <c r="R11" cm="1">
-        <f t="array" ref="R11">_R2(A$1)</f>
+      <c r="R11" t="str" cm="1">
+        <f t="array" ref="R11">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,O11),FALSE))),"")</f>
+        <v/>
+      </c>
+      <c r="S11" cm="1">
+        <f t="array" ref="S11">_R2(A$1)</f>
         <v>0.75</v>
       </c>
-      <c r="S11" t="e" cm="1">
-        <f t="array" ref="S11">GET(__Selected_R2)</f>
+      <c r="T11" t="e" cm="1">
+        <f t="array" ref="T11">GET(__Selected_R2)</f>
         <v>#REF!</v>
       </c>
-      <c r="T11" t="b">
+      <c r="U11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" cm="1">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" cm="1">
         <f t="array" ref="A12">MyVal(__Ideal_R1,A$1)</f>
         <v>47.625</v>
       </c>
-      <c r="B12" s="16" t="str">
-        <f t="shared" ca="1" si="5"/>
+      <c r="B12" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v>=MyVal(__Ideal_R1,A$1)</v>
       </c>
-      <c r="C12" s="16" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(R12)</f>
+      <c r="C12" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>=Ideal_R1(A$1)</v>
       </c>
-      <c r="D12" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="D12" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>=GET(__Ideal_R1)</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="14"/>
+      <c r="F12" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="3" cm="1">
-        <f t="array" ref="F12">MyVal(__Target_R_Ratio,F$1)*MyVal(__Selected_R2,F$1)</f>
+      <c r="G12" s="26" cm="1">
+        <f t="array" ref="G12">MyVal(__Target_R_Ratio,G$1)*MyVal(__Selected_R2,G$1)</f>
         <v>47.625</v>
       </c>
-      <c r="G12" s="3" cm="1">
-        <f t="array" ref="G12">Target_Ratio(G$1)*_R2(G$1)</f>
+      <c r="H12" s="26" cm="1">
+        <f t="array" ref="H12">Target_Ratio(H$1)*_R2(H$1)</f>
         <v>47.625</v>
       </c>
-      <c r="H12" s="3" cm="1">
-        <f t="array" ref="H12">GET(__Target_R_Ratio)*GET(__Selected_R2)</f>
+      <c r="I12" s="26" cm="1">
+        <f t="array" ref="I12">GET(__Target_R_Ratio)*GET(__Selected_R2)</f>
         <v>47.625</v>
       </c>
-      <c r="I12" s="3">
-        <f t="shared" ref="I12:K12" si="9">I9*I11</f>
+      <c r="J12" s="26">
+        <f t="shared" ref="J12:L12" si="10">J9*J11</f>
         <v>47.625</v>
       </c>
-      <c r="J12" s="3" t="e">
-        <f t="shared" si="9"/>
+      <c r="K12" s="26" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="3" t="e">
-        <f t="shared" si="9"/>
+      <c r="L12" s="27" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L12" s="24"/>
-      <c r="M12" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=MyVal(__Target_R_Ratio,F$1)*MyVal(__Selected_R2,F$1)</v>
-      </c>
-      <c r="N12" s="15" t="str">
-        <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(G12),"")</f>
-        <v>=Target_Ratio(G$1)*_R2(G$1)</v>
-      </c>
-      <c r="O12" s="15" t="str">
+      <c r="M12" s="14"/>
+      <c r="N12" s="7" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>=MyVal(__Target_R_Ratio,G$1)*MyVal(__Selected_R2,G$1)</v>
+      </c>
+      <c r="O12" s="7" t="str">
         <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(H12),"")</f>
+        <v>=Target_Ratio(H$1)*_R2(H$1)</v>
+      </c>
+      <c r="P12" s="7" t="str">
+        <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(I12),"")</f>
         <v>=GET(__Target_R_Ratio)*GET(__Selected_R2)</v>
       </c>
-      <c r="P12" s="15" t="str">
+      <c r="Q12" s="7" t="str">
         <f ca="1"/>
         <v>=GET(__Target_R_Ratio)*GET(__Selected_R2)</v>
       </c>
-      <c r="Q12" t="str" cm="1">
-        <f t="array" aca="1" ref="Q12" ca="1">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,N12),FALSE))),"")</f>
-        <v/>
-      </c>
-      <c r="R12" cm="1">
-        <f t="array" ref="R12">Ideal_R1(A$1)</f>
+      <c r="R12" t="str" cm="1">
+        <f t="array" aca="1" ref="R12" ca="1">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,O12),FALSE))),"")</f>
+        <v/>
+      </c>
+      <c r="S12" cm="1">
+        <f t="array" ref="S12">Ideal_R1(A$1)</f>
         <v>47.625</v>
       </c>
-      <c r="S12" t="e" cm="1">
-        <f t="array" ref="S12">GET(__Ideal_R1)</f>
+      <c r="T12" t="e" cm="1">
+        <f t="array" ref="T12">GET(__Ideal_R1)</f>
         <v>#REF!</v>
       </c>
-      <c r="T12" t="b">
+      <c r="U12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" cm="1">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" cm="1">
         <f t="array" ref="A13">MyVal(__Selected_R1,A$1)</f>
         <v>47.65</v>
       </c>
-      <c r="B13" s="16" t="str">
-        <f t="shared" ca="1" si="5"/>
+      <c r="B13" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v>=MyVal(__Selected_R1,A$1)</v>
       </c>
-      <c r="C13" s="16" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(R13)</f>
+      <c r="C13" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>=_R1(A$1)</v>
       </c>
-      <c r="D13" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="D13" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>=GET(__Selected_R1)</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="14"/>
+      <c r="F13" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="4">
+      <c r="G13" s="22">
         <v>47.65</v>
       </c>
-      <c r="G13" s="4">
+      <c r="H13" s="22">
         <v>47.65</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="22">
         <v>47.65</v>
       </c>
-      <c r="I13" s="4">
+      <c r="J13" s="22">
         <v>47.65</v>
       </c>
-      <c r="J13" s="4">
+      <c r="K13" s="22">
         <v>0</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="23">
         <v>0</v>
       </c>
-      <c r="L13" s="24"/>
-      <c r="M13" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="P13" t="str">
+      <c r="M13" s="14"/>
+      <c r="N13" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="Q13" t="str">
         <f ca="1"/>
         <v/>
       </c>
-      <c r="Q13" t="str" cm="1">
-        <f t="array" ref="Q13">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,N13),FALSE))),"")</f>
-        <v/>
-      </c>
-      <c r="R13" cm="1">
-        <f t="array" ref="R13">_R1(A$1)</f>
+      <c r="R13" t="str" cm="1">
+        <f t="array" ref="R13">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,O13),FALSE))),"")</f>
+        <v/>
+      </c>
+      <c r="S13" cm="1">
+        <f t="array" ref="S13">_R1(A$1)</f>
         <v>47.65</v>
       </c>
-      <c r="S13" t="e" cm="1">
-        <f t="array" ref="S13">GET(__Selected_R1)</f>
+      <c r="T13" t="e" cm="1">
+        <f t="array" ref="T13">GET(__Selected_R1)</f>
         <v>#REF!</v>
       </c>
-      <c r="T13" t="b">
+      <c r="U13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" cm="1">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" cm="1">
         <f t="array" ref="A14">MyVal(__Ideal_R5,A$1)</f>
         <v>949.85</v>
       </c>
-      <c r="B14" s="16" t="str">
-        <f t="shared" ca="1" si="5"/>
+      <c r="B14" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v>=MyVal(__Ideal_R5,A$1)</v>
       </c>
-      <c r="C14" s="16" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(R14)</f>
+      <c r="C14" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>=Ideal_R5(A$1)</v>
       </c>
-      <c r="D14" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="D14" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>=GET(__Ideal_R5)</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="14"/>
+      <c r="F14" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="3" cm="1">
-        <f t="array" ref="F14">(MyVal(__VCC,F$1)-MyVal(__VEC_Q2,F$1)-MyVal(__VDS_Q3,F$1)-(MyVal(__IR1_mA,F$1)/1000*MyVal(__Selected_R1,F$1)))/(MyVal(__IR1_mA,F$1)/1000)</f>
+      <c r="G14" s="26" cm="1">
+        <f t="array" ref="G14">(MyVal(__VCC,G$1)-MyVal(__VEC_Q2,G$1)-MyVal(__VDS_Q3,G$1)-(MyVal(__IR1_mA,G$1)/1000*MyVal(__Selected_R1,G$1)))/(MyVal(__IR1_mA,G$1)/1000)</f>
         <v>949.85</v>
       </c>
-      <c r="G14" s="3" cm="1">
-        <f t="array" ref="G14">(VCC(G$1)-VEC_Q2(G$1)-VDS_Q3(G$1)-(_IR1(G$1)/1000*_R1(G$1)))/(_IR1(G$1)/1000)</f>
+      <c r="H14" s="26" cm="1">
+        <f t="array" ref="H14">(VCC(H$1)-VEC_Q2(H$1)-VDS_Q3(H$1)-(_IR1(H$1)/1000*_R1(H$1)))/(_IR1(H$1)/1000)</f>
         <v>949.85</v>
       </c>
-      <c r="H14" s="3" cm="1">
-        <f t="array" ref="H14">(GET(__VCC)-GET(__VEC_Q2)-GET(__VDS_Q3)-(GET(__IR1_mA)/1000*GET(__Selected_R1)))/(GET(__IR1_mA)/1000)</f>
+      <c r="I14" s="26" cm="1">
+        <f t="array" ref="I14">(GET(__VCC)-GET(__VEC_Q2)-GET(__VDS_Q3)-(GET(__IR1_mA)/1000*GET(__Selected_R1)))/(GET(__IR1_mA)/1000)</f>
         <v>949.85</v>
       </c>
-      <c r="I14" s="3">
-        <f>(I2-I28-I25-(I7/1000*I13))/(I7/1000)</f>
+      <c r="J14" s="26">
+        <f>(J2-J28-J25-(J7/1000*J13))/(J7/1000)</f>
         <v>949.85</v>
       </c>
-      <c r="J14" s="3" t="e">
-        <f t="shared" ref="J14:K14" si="10">(J2-J28-J25-(J7/1000*J13))/(J7/1000)</f>
+      <c r="K14" s="26" t="e">
+        <f t="shared" ref="K14:L14" si="11">(K2-K28-K25-(K7/1000*K13))/(K7/1000)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="3" t="e">
-        <f t="shared" si="10"/>
+      <c r="L14" s="27" t="e">
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L14" s="24"/>
-      <c r="M14" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=(MyVal(__VCC,F$1)-MyVal(__VEC_Q2,F$1)-MyVal(__VDS_Q3,F$1)-(MyVal(__IR1_mA,F$1)/1000*MyVal(__Selected_R1,F$1)))/(MyVal(__IR1_mA,F$1)/1000)</v>
-      </c>
-      <c r="N14" s="15" t="str">
-        <f t="shared" ref="N14:N22" ca="1" si="11">_xlfn.IFNA(_xlfn.FORMULATEXT(G14),"")</f>
-        <v>=(VCC(G$1)-VEC_Q2(G$1)-VDS_Q3(G$1)-(_IR1(G$1)/1000*_R1(G$1)))/(_IR1(G$1)/1000)</v>
-      </c>
-      <c r="O14" s="15" t="str">
-        <f t="shared" ref="O14:O23" ca="1" si="12">_xlfn.IFNA(_xlfn.FORMULATEXT(H14),"")</f>
+      <c r="M14" s="14"/>
+      <c r="N14" s="7" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>=(MyVal(__VCC,G$1)-MyVal(__VEC_Q2,G$1)-MyVal(__VDS_Q3,G$1)-(MyVal(__IR1_mA,G$1)/1000*MyVal(__Selected_R1,G$1)))/(MyVal(__IR1_mA,G$1)/1000)</v>
+      </c>
+      <c r="O14" s="7" t="str">
+        <f t="shared" ref="O14:O22" ca="1" si="12">_xlfn.IFNA(_xlfn.FORMULATEXT(H14),"")</f>
+        <v>=(VCC(H$1)-VEC_Q2(H$1)-VDS_Q3(H$1)-(_IR1(H$1)/1000*_R1(H$1)))/(_IR1(H$1)/1000)</v>
+      </c>
+      <c r="P14" s="7" t="str">
+        <f t="shared" ref="P14:P23" ca="1" si="13">_xlfn.IFNA(_xlfn.FORMULATEXT(I14),"")</f>
         <v>=(GET(__VCC)-GET(__VEC_Q2)-GET(__VDS_Q3)-(GET(__IR1_mA)/1000*GET(__Selected_R1)))/(GET(__IR1_mA)/1000)</v>
       </c>
-      <c r="P14" s="15" t="str">
+      <c r="Q14" s="7" t="str">
         <f ca="1"/>
         <v>=(GET(__VCC)-GET(__VEC_Q2)-GET(__VDS_Q3)-(GET(__IR1_mA)/1000*GET(__Selected_R1)))/(GET(__IR1_mA)/1000)</v>
       </c>
-      <c r="Q14" t="str" cm="1">
-        <f t="array" aca="1" ref="Q14" ca="1">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,N14),FALSE))),"")</f>
-        <v/>
-      </c>
-      <c r="R14" cm="1">
-        <f t="array" ref="R14">Ideal_R5(A$1)</f>
+      <c r="R14" t="str" cm="1">
+        <f t="array" aca="1" ref="R14" ca="1">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,O14),FALSE))),"")</f>
+        <v/>
+      </c>
+      <c r="S14" cm="1">
+        <f t="array" ref="S14">Ideal_R5(A$1)</f>
         <v>949.85</v>
       </c>
-      <c r="S14" t="e" cm="1">
-        <f t="array" ref="S14">GET(__Ideal_R5)</f>
+      <c r="T14" t="e" cm="1">
+        <f t="array" ref="T14">GET(__Ideal_R5)</f>
         <v>#REF!</v>
       </c>
-      <c r="T14" t="b">
+      <c r="U14" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" cm="1">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" cm="1">
         <f t="array" ref="A15">MyVal(__Calc_IR1_mA,A$1)</f>
         <v>4</v>
       </c>
-      <c r="B15" s="16" t="str">
-        <f t="shared" ca="1" si="5"/>
+      <c r="B15" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v>=MyVal(__Calc_IR1_mA,A$1)</v>
       </c>
-      <c r="C15" s="16" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(R15)</f>
+      <c r="C15" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>=_IR1(A$1)</v>
       </c>
-      <c r="D15" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="D15" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>=GET(__Calc_IR1_mA)</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="14"/>
+      <c r="F15" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="6" cm="1">
-        <f t="array" ref="F15">(MyVal(__VCC,F$1)-MyVal(__VEC_Q2,F$1)-MyVal(__VDS_Q3,F$1))/(MyVal(__Selected_R1,F$1)+MyVal(__Ideal_R5,F$1))*1000</f>
+      <c r="G15" s="30" cm="1">
+        <f t="array" ref="G15">(MyVal(__VCC,G$1)-MyVal(__VEC_Q2,G$1)-MyVal(__VDS_Q3,G$1))/(MyVal(__Selected_R1,G$1)+MyVal(__Ideal_R5,G$1))*1000</f>
         <v>4</v>
       </c>
-      <c r="G15" s="6" cm="1">
-        <f t="array" ref="G15">(VCC(G$1)-VEC_Q2(G$1)-VDS_Q3(G$1))/(_R1(G$1)+Ideal_R5(G$1))*1000</f>
+      <c r="H15" s="30" cm="1">
+        <f t="array" ref="H15">(VCC(H$1)-VEC_Q2(H$1)-VDS_Q3(H$1))/(_R1(H$1)+Ideal_R5(H$1))*1000</f>
         <v>4</v>
       </c>
-      <c r="H15" s="6" cm="1">
-        <f t="array" ref="H15">(GET(__VCC)-GET(__VEC_Q2)-GET(__VDS_Q3))/(GET(__Selected_R1)+GET(__Ideal_R5))*1000</f>
+      <c r="I15" s="30" cm="1">
+        <f t="array" ref="I15">(GET(__VCC)-GET(__VEC_Q2)-GET(__VDS_Q3))/(GET(__Selected_R1)+GET(__Ideal_R5))*1000</f>
         <v>4</v>
       </c>
-      <c r="I15" s="6">
-        <f>(I2-I28-I25)/(I13+I14)*1000</f>
+      <c r="J15" s="30">
+        <f>(J2-J28-J25)/(J13+J14)*1000</f>
         <v>4</v>
       </c>
-      <c r="J15" s="6" t="e">
-        <f t="shared" ref="J15:K15" si="13">(J2-J28-J25)/(J13+J14)*1000</f>
+      <c r="K15" s="30" t="e">
+        <f t="shared" ref="K15:L15" si="14">(K2-K28-K25)/(K13+K14)*1000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K15" s="6" t="e">
-        <f t="shared" si="13"/>
+      <c r="L15" s="31" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L15" s="24"/>
-      <c r="M15" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=(MyVal(__VCC,F$1)-MyVal(__VEC_Q2,F$1)-MyVal(__VDS_Q3,F$1))/(MyVal(__Selected_R1,F$1)+MyVal(__Ideal_R5,F$1))*1000</v>
-      </c>
-      <c r="N15" s="15" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>=(VCC(G$1)-VEC_Q2(G$1)-VDS_Q3(G$1))/(_R1(G$1)+Ideal_R5(G$1))*1000</v>
-      </c>
-      <c r="O15" s="15" t="str">
+      <c r="M15" s="14"/>
+      <c r="N15" s="7" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>=(MyVal(__VCC,G$1)-MyVal(__VEC_Q2,G$1)-MyVal(__VDS_Q3,G$1))/(MyVal(__Selected_R1,G$1)+MyVal(__Ideal_R5,G$1))*1000</v>
+      </c>
+      <c r="O15" s="7" t="str">
         <f t="shared" ca="1" si="12"/>
+        <v>=(VCC(H$1)-VEC_Q2(H$1)-VDS_Q3(H$1))/(_R1(H$1)+Ideal_R5(H$1))*1000</v>
+      </c>
+      <c r="P15" s="7" t="str">
+        <f t="shared" ca="1" si="13"/>
         <v>=(GET(__VCC)-GET(__VEC_Q2)-GET(__VDS_Q3))/(GET(__Selected_R1)+GET(__Ideal_R5))*1000</v>
       </c>
-      <c r="P15" s="15" t="str">
+      <c r="Q15" s="7" t="str">
         <f ca="1"/>
         <v>=(GET(__VCC)-GET(__VEC_Q2)-GET(__VDS_Q3))/(GET(__Selected_R1)+GET(__Ideal_R5))*1000</v>
       </c>
-      <c r="Q15" t="str" cm="1">
-        <f t="array" aca="1" ref="Q15" ca="1">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,N15),FALSE))),"")</f>
-        <v/>
-      </c>
-      <c r="R15" cm="1">
-        <f t="array" ref="R15">_IR1(A$1)</f>
+      <c r="R15" t="str" cm="1">
+        <f t="array" aca="1" ref="R15" ca="1">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,O15),FALSE))),"")</f>
+        <v/>
+      </c>
+      <c r="S15" cm="1">
+        <f t="array" ref="S15">_IR1(A$1)</f>
         <v>4</v>
       </c>
-      <c r="S15" t="e" cm="1">
-        <f t="array" ref="S15">GET(__Calc_IR1_mA)</f>
+      <c r="T15" t="e" cm="1">
+        <f t="array" ref="T15">GET(__Calc_IR1_mA)</f>
         <v>#REF!</v>
       </c>
-      <c r="T15" t="b">
+      <c r="U15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" cm="1">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" cm="1">
         <f t="array" ref="A16">MyVal(__Actual_R_Ratio,A$1)</f>
         <v>63.533333333333331</v>
       </c>
-      <c r="B16" s="16" t="str">
-        <f t="shared" ca="1" si="5"/>
+      <c r="B16" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v>=MyVal(__Actual_R_Ratio,A$1)</v>
       </c>
-      <c r="C16" s="16" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(R16)</f>
+      <c r="C16" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>=Actual_Ratio(A$1)</v>
       </c>
-      <c r="D16" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="D16" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>=GET(__Actual_R_Ratio)</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="14"/>
+      <c r="F16" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="11" cm="1">
-        <f t="array" ref="F16">IFERROR(MyVal(__Selected_R1,F$1)/MyVal(__Selected_R2,F$1),NA())</f>
+      <c r="G16" s="32" cm="1">
+        <f t="array" ref="G16">IFERROR(MyVal(__Selected_R1,G$1)/MyVal(__Selected_R2,G$1),NA())</f>
         <v>63.533333333333331</v>
       </c>
-      <c r="G16" s="11" cm="1">
-        <f t="array" ref="G16">IFERROR(_R1(G$1)/_R2(G$1),NA())</f>
+      <c r="H16" s="32" cm="1">
+        <f t="array" ref="H16">IFERROR(_R1(H$1)/_R2(H$1),NA())</f>
         <v>63.533333333333331</v>
       </c>
-      <c r="H16" s="11" cm="1">
-        <f t="array" ref="H16">IFERROR(GET(__Selected_R1)/GET(__Selected_R2),NA())</f>
+      <c r="I16" s="32" cm="1">
+        <f t="array" ref="I16">IFERROR(GET(__Selected_R1)/GET(__Selected_R2),NA())</f>
         <v>63.533333333333331</v>
       </c>
-      <c r="I16" s="11">
-        <f t="shared" ref="I16:K16" si="14">IFERROR(I13/I11,NA())</f>
+      <c r="J16" s="32">
+        <f t="shared" ref="J16:L16" si="15">IFERROR(J13/J11,NA())</f>
         <v>63.533333333333331</v>
       </c>
-      <c r="J16" s="11" t="e">
-        <f t="shared" si="14"/>
+      <c r="K16" s="32" t="e">
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
-      <c r="K16" s="11" t="e">
-        <f t="shared" si="14"/>
+      <c r="L16" s="33" t="e">
+        <f t="shared" si="15"/>
         <v>#N/A</v>
       </c>
-      <c r="L16" s="24"/>
-      <c r="M16" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=IFERROR(MyVal(__Selected_R1,F$1)/MyVal(__Selected_R2,F$1),NA())</v>
-      </c>
-      <c r="N16" s="15" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>=IFERROR(_R1(G$1)/_R2(G$1),NA())</v>
-      </c>
-      <c r="O16" s="15" t="str">
+      <c r="M16" s="14"/>
+      <c r="N16" s="7" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>=IFERROR(MyVal(__Selected_R1,G$1)/MyVal(__Selected_R2,G$1),NA())</v>
+      </c>
+      <c r="O16" s="7" t="str">
         <f t="shared" ca="1" si="12"/>
+        <v>=IFERROR(_R1(H$1)/_R2(H$1),NA())</v>
+      </c>
+      <c r="P16" s="7" t="str">
+        <f t="shared" ca="1" si="13"/>
         <v>=IFERROR(GET(__Selected_R1)/GET(__Selected_R2),NA())</v>
       </c>
-      <c r="P16" s="15" t="str">
+      <c r="Q16" s="7" t="str">
         <f ca="1"/>
         <v>=IFERROR(GET(__Selected_R1)/GET(__Selected_R2),NA())</v>
       </c>
-      <c r="Q16" t="str" cm="1">
-        <f t="array" aca="1" ref="Q16" ca="1">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,N16),FALSE))),"")</f>
-        <v/>
-      </c>
-      <c r="R16" cm="1">
-        <f t="array" ref="R16">Actual_Ratio(A$1)</f>
+      <c r="R16" t="str" cm="1">
+        <f t="array" aca="1" ref="R16" ca="1">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,O16),FALSE))),"")</f>
+        <v/>
+      </c>
+      <c r="S16" cm="1">
+        <f t="array" ref="S16">Actual_Ratio(A$1)</f>
         <v>63.533333333333331</v>
       </c>
-      <c r="S16" t="e" cm="1">
-        <f t="array" ref="S16">GET(__Actual_R_Ratio)</f>
+      <c r="T16" t="e" cm="1">
+        <f t="array" ref="T16">GET(__Actual_R_Ratio)</f>
         <v>#REF!</v>
       </c>
-      <c r="T16" t="b">
+      <c r="U16" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" cm="1">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" cm="1">
         <f t="array" ref="A17">MyVal(__Calc_Load_mA,A$1)</f>
         <v>250.13333333333333</v>
       </c>
-      <c r="B17" s="16" t="str">
-        <f t="shared" ca="1" si="5"/>
+      <c r="B17" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v>=MyVal(__Calc_Load_mA,A$1)</v>
       </c>
-      <c r="C17" s="16" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(R17)</f>
+      <c r="C17" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>=Actual_Load(A$1)</v>
       </c>
-      <c r="D17" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="D17" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>=GET(__Calc_Load_mA)</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="14"/>
+      <c r="F17" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="11" cm="1">
-        <f t="array" ref="F17">IFERROR(MyVal(__Calc_IR1_mA,F$1)*(MyVal(__Actual_R_Ratio,F$1)-1),NA())</f>
+      <c r="G17" s="32" cm="1">
+        <f t="array" ref="G17">IFERROR(MyVal(__Calc_IR1_mA,G$1)*(MyVal(__Actual_R_Ratio,G$1)-1),NA())</f>
         <v>250.13333333333333</v>
       </c>
-      <c r="G17" s="11" cm="1">
-        <f t="array" ref="G17">IFERROR(_IR1(G$1)*(Actual_Ratio(G$1)-1),NA())</f>
+      <c r="H17" s="32" cm="1">
+        <f t="array" ref="H17">IFERROR(_IR1(H$1)*(Actual_Ratio(H$1)-1),NA())</f>
         <v>250.13333333333333</v>
       </c>
-      <c r="H17" s="11" cm="1">
-        <f t="array" ref="H17">IFERROR(GET(__Calc_IR1_mA)*(GET(__Actual_R_Ratio)-1),NA())</f>
+      <c r="I17" s="32" cm="1">
+        <f t="array" ref="I17">IFERROR(GET(__Calc_IR1_mA)*(GET(__Actual_R_Ratio)-1),NA())</f>
         <v>250.13333333333333</v>
       </c>
-      <c r="I17" s="11">
-        <f t="shared" ref="I17:K17" si="15">IFERROR(I15*(I16-1),NA())</f>
+      <c r="J17" s="32">
+        <f t="shared" ref="J17:L17" si="16">IFERROR(J15*(J16-1),NA())</f>
         <v>250.13333333333333</v>
       </c>
-      <c r="J17" s="11" t="e">
-        <f t="shared" si="15"/>
+      <c r="K17" s="32" t="e">
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
-      <c r="K17" s="11" t="e">
-        <f t="shared" si="15"/>
+      <c r="L17" s="33" t="e">
+        <f t="shared" si="16"/>
         <v>#N/A</v>
       </c>
-      <c r="L17" s="24"/>
-      <c r="M17" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=IFERROR(MyVal(__Calc_IR1_mA,F$1)*(MyVal(__Actual_R_Ratio,F$1)-1),NA())</v>
-      </c>
-      <c r="N17" s="15" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>=IFERROR(_IR1(G$1)*(Actual_Ratio(G$1)-1),NA())</v>
-      </c>
-      <c r="O17" s="15" t="str">
+      <c r="M17" s="14"/>
+      <c r="N17" s="7" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>=IFERROR(MyVal(__Calc_IR1_mA,G$1)*(MyVal(__Actual_R_Ratio,G$1)-1),NA())</v>
+      </c>
+      <c r="O17" s="7" t="str">
         <f t="shared" ca="1" si="12"/>
+        <v>=IFERROR(_IR1(H$1)*(Actual_Ratio(H$1)-1),NA())</v>
+      </c>
+      <c r="P17" s="7" t="str">
+        <f t="shared" ca="1" si="13"/>
         <v>=IFERROR(GET(__Calc_IR1_mA)*(GET(__Actual_R_Ratio)-1),NA())</v>
       </c>
-      <c r="P17" s="15" t="str">
+      <c r="Q17" s="7" t="str">
         <f ca="1"/>
         <v>=IFERROR(GET(__Calc_IR1_mA)*(GET(__Actual_R_Ratio)-1),NA())</v>
       </c>
-      <c r="Q17" t="str" cm="1">
-        <f t="array" aca="1" ref="Q17" ca="1">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,N17),FALSE))),"")</f>
-        <v/>
-      </c>
-      <c r="R17" cm="1">
-        <f t="array" ref="R17">Actual_Load(A$1)</f>
+      <c r="R17" t="str" cm="1">
+        <f t="array" aca="1" ref="R17" ca="1">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,O17),FALSE))),"")</f>
+        <v/>
+      </c>
+      <c r="S17" cm="1">
+        <f t="array" ref="S17">Actual_Load(A$1)</f>
         <v>250.13333333333333</v>
       </c>
-      <c r="S17" t="e" cm="1">
-        <f t="array" ref="S17">GET(__Calc_Load_mA)</f>
+      <c r="T17" t="e" cm="1">
+        <f t="array" ref="T17">GET(__Calc_Load_mA)</f>
         <v>#REF!</v>
       </c>
-      <c r="T17" t="b">
+      <c r="U17" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" cm="1">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" cm="1">
         <f t="array" ref="A18">MyVal(__Pdiss_R2,A$1)</f>
         <v>4.8386999999999999E-2</v>
       </c>
-      <c r="B18" s="16" t="str">
-        <f t="shared" ca="1" si="5"/>
+      <c r="B18" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v>=MyVal(__Pdiss_R2,A$1)</v>
       </c>
-      <c r="C18" s="16" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(R18)</f>
+      <c r="C18" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>=Pdiss_R2(A$1)</v>
       </c>
-      <c r="D18" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="D18" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>=GET(__Pdiss_R2)</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="14"/>
+      <c r="F18" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="3" cm="1">
-        <f t="array" ref="F18">(MyVal(__Target_IR2_mA,F$1)/1000)^2*MyVal(__Selected_R2,F$1)</f>
+      <c r="G18" s="26" cm="1">
+        <f t="array" ref="G18">(MyVal(__Target_IR2_mA,G$1)/1000)^2*MyVal(__Selected_R2,G$1)</f>
         <v>4.8386999999999999E-2</v>
       </c>
-      <c r="G18" s="3" cm="1">
-        <f t="array" ref="G18">(Target_IR2(G$1)/1000)^2*_R2(G$1)</f>
+      <c r="H18" s="26" cm="1">
+        <f t="array" ref="H18">(Target_IR2(H$1)/1000)^2*_R2(H$1)</f>
         <v>4.8386999999999999E-2</v>
       </c>
-      <c r="H18" s="3" cm="1">
-        <f t="array" ref="H18">(GET(__Target_IR2_mA)/1000)^2*GET(__Selected_R2)</f>
+      <c r="I18" s="26" cm="1">
+        <f t="array" ref="I18">(GET(__Target_IR2_mA)/1000)^2*GET(__Selected_R2)</f>
         <v>4.8386999999999999E-2</v>
       </c>
-      <c r="I18" s="3">
-        <f t="shared" ref="I18:K18" si="16">(I8/1000)^2*I11</f>
+      <c r="J18" s="26">
+        <f t="shared" ref="J18:L18" si="17">(J8/1000)^2*J11</f>
         <v>4.8386999999999999E-2</v>
       </c>
-      <c r="J18" s="3">
-        <f t="shared" si="16"/>
+      <c r="K18" s="26">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K18" s="3">
-        <f t="shared" si="16"/>
+      <c r="L18" s="27">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="L18" s="24"/>
-      <c r="M18" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=(MyVal(__Target_IR2_mA,F$1)/1000)^2*MyVal(__Selected_R2,F$1)</v>
-      </c>
-      <c r="N18" s="15" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>=(Target_IR2(G$1)/1000)^2*_R2(G$1)</v>
-      </c>
-      <c r="O18" s="15" t="str">
+      <c r="M18" s="14"/>
+      <c r="N18" s="7" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>=(MyVal(__Target_IR2_mA,G$1)/1000)^2*MyVal(__Selected_R2,G$1)</v>
+      </c>
+      <c r="O18" s="7" t="str">
         <f t="shared" ca="1" si="12"/>
+        <v>=(Target_IR2(H$1)/1000)^2*_R2(H$1)</v>
+      </c>
+      <c r="P18" s="7" t="str">
+        <f t="shared" ca="1" si="13"/>
         <v>=(GET(__Target_IR2_mA)/1000)^2*GET(__Selected_R2)</v>
       </c>
-      <c r="P18" s="15" t="str">
+      <c r="Q18" s="7" t="str">
         <f ca="1"/>
         <v>=(GET(__Target_IR2_mA)/1000)^2*GET(__Selected_R2)</v>
       </c>
-      <c r="Q18" t="str" cm="1">
-        <f t="array" aca="1" ref="Q18" ca="1">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,N18),FALSE))),"")</f>
-        <v/>
-      </c>
-      <c r="R18" cm="1">
-        <f t="array" ref="R18">Pdiss_R2(A$1)</f>
+      <c r="R18" t="str" cm="1">
+        <f t="array" aca="1" ref="R18" ca="1">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,O18),FALSE))),"")</f>
+        <v/>
+      </c>
+      <c r="S18" cm="1">
+        <f t="array" ref="S18">Pdiss_R2(A$1)</f>
         <v>4.8386999999999999E-2</v>
       </c>
-      <c r="S18" t="e" cm="1">
-        <f t="array" ref="S18">GET(__Pdiss_R2)</f>
+      <c r="T18" t="e" cm="1">
+        <f t="array" ref="T18">GET(__Pdiss_R2)</f>
         <v>#REF!</v>
       </c>
-      <c r="T18" t="b">
+      <c r="U18" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" cm="1">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" cm="1">
         <f t="array" ref="A19">MyVal(__VC,A$1)</f>
         <v>2.56</v>
       </c>
-      <c r="B19" s="16" t="str">
-        <f t="shared" ca="1" si="5"/>
+      <c r="B19" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v>=MyVal(__VC,A$1)</v>
       </c>
-      <c r="C19" s="16" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(R19)</f>
+      <c r="C19" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>=VC(A$1)</v>
       </c>
-      <c r="D19" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="D19" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>=GET(__VC)</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="14"/>
+      <c r="F19" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="3" cm="1">
-        <f t="array" ref="F19">MyVal(__VD,F$1)-MyVal(__VEC_Q1,F$1)</f>
+      <c r="G19" s="26" cm="1">
+        <f t="array" ref="G19">MyVal(__VD,G$1)-MyVal(__VEC_Q1,G$1)</f>
         <v>2.56</v>
       </c>
-      <c r="G19" s="3" cm="1">
-        <f t="array" ref="G19">VD(G$1)-VEC_Q1(G$1)</f>
+      <c r="H19" s="26" cm="1">
+        <f t="array" ref="H19">VD(H$1)-VEC_Q1(H$1)</f>
         <v>2.56</v>
       </c>
-      <c r="H19" s="3" cm="1">
-        <f t="array" ref="H19">GET(__VD)-GET(__VEC_Q1)</f>
+      <c r="I19" s="26" cm="1">
+        <f t="array" ref="I19">GET(__VD)-GET(__VEC_Q1)</f>
         <v>2.56</v>
       </c>
-      <c r="I19" s="3">
-        <f>I4-I26</f>
+      <c r="J19" s="26">
+        <f>J4-J26</f>
         <v>2.56</v>
       </c>
-      <c r="J19" s="3">
-        <f t="shared" ref="J19:K19" si="17">J4-J26</f>
+      <c r="K19" s="26">
+        <f t="shared" ref="K19:L19" si="18">K4-K26</f>
         <v>0</v>
       </c>
-      <c r="K19" s="3">
-        <f t="shared" si="17"/>
+      <c r="L19" s="27">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="L19" s="24"/>
-      <c r="M19" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=MyVal(__VD,F$1)-MyVal(__VEC_Q1,F$1)</v>
-      </c>
-      <c r="N19" s="15" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>=VD(G$1)-VEC_Q1(G$1)</v>
-      </c>
-      <c r="O19" s="15" t="str">
+      <c r="M19" s="14"/>
+      <c r="N19" s="7" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>=MyVal(__VD,G$1)-MyVal(__VEC_Q1,G$1)</v>
+      </c>
+      <c r="O19" s="7" t="str">
         <f t="shared" ca="1" si="12"/>
+        <v>=VD(H$1)-VEC_Q1(H$1)</v>
+      </c>
+      <c r="P19" s="7" t="str">
+        <f t="shared" ca="1" si="13"/>
         <v>=GET(__VD)-GET(__VEC_Q1)</v>
       </c>
-      <c r="P19" s="15" t="str">
+      <c r="Q19" s="7" t="str">
         <f ca="1"/>
         <v>=GET(__VD)-GET(__VEC_Q1)</v>
       </c>
-      <c r="Q19" t="str" cm="1">
-        <f t="array" aca="1" ref="Q19" ca="1">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,N19),FALSE))),"")</f>
-        <v/>
-      </c>
-      <c r="R19" cm="1">
-        <f t="array" ref="R19">VC(A$1)</f>
+      <c r="R19" t="str" cm="1">
+        <f t="array" aca="1" ref="R19" ca="1">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,O19),FALSE))),"")</f>
+        <v/>
+      </c>
+      <c r="S19" cm="1">
+        <f t="array" ref="S19">VC(A$1)</f>
         <v>2.56</v>
       </c>
-      <c r="S19" t="e" cm="1">
-        <f t="array" ref="S19">GET(__VC)</f>
+      <c r="T19" t="e" cm="1">
+        <f t="array" ref="T19">GET(__VC)</f>
         <v>#REF!</v>
       </c>
-      <c r="T19" t="b">
+      <c r="U19" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" cm="1">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" cm="1">
         <f t="array" ref="A20">MyVal(__Calc_IR3_mA,A$1)</f>
         <v>4</v>
       </c>
-      <c r="B20" s="16" t="str">
-        <f t="shared" ca="1" si="5"/>
+      <c r="B20" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v>=MyVal(__Calc_IR3_mA,A$1)</v>
       </c>
-      <c r="C20" s="16" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(R20)</f>
+      <c r="C20" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>=_IR3(A$1)</v>
       </c>
-      <c r="D20" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="D20" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>=GET(__Calc_IR3_mA)</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="14"/>
+      <c r="F20" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="3" cm="1">
-        <f t="array" ref="F20">MyVal(__IR1_mA,F$1)</f>
+      <c r="G20" s="26" cm="1">
+        <f t="array" ref="G20">MyVal(__IR1_mA,G$1)</f>
         <v>4</v>
       </c>
-      <c r="G20" s="3" cm="1">
-        <f t="array" ref="G20">_IR1(G$1)</f>
+      <c r="H20" s="26" cm="1">
+        <f t="array" ref="H20">_IR1(H$1)</f>
         <v>4</v>
       </c>
-      <c r="H20" s="3" cm="1">
-        <f t="array" ref="H20">GET(__IR1_mA)</f>
+      <c r="I20" s="26" cm="1">
+        <f t="array" ref="I20">GET(__IR1_mA)</f>
         <v>4</v>
       </c>
-      <c r="I20" s="3">
-        <f>I7</f>
+      <c r="J20" s="26">
+        <f>J7</f>
         <v>4</v>
       </c>
-      <c r="J20" s="3">
-        <f t="shared" ref="J20:K20" si="18">J7</f>
+      <c r="K20" s="26">
+        <f t="shared" ref="K20:L20" si="19">K7</f>
         <v>0</v>
       </c>
-      <c r="K20" s="3">
-        <f t="shared" si="18"/>
+      <c r="L20" s="27">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="L20" s="24"/>
-      <c r="M20" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=MyVal(__IR1_mA,F$1)</v>
-      </c>
-      <c r="N20" s="15" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>=_IR1(G$1)</v>
-      </c>
-      <c r="O20" s="15" t="str">
+      <c r="M20" s="14"/>
+      <c r="N20" s="7" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>=MyVal(__IR1_mA,G$1)</v>
+      </c>
+      <c r="O20" s="7" t="str">
         <f t="shared" ca="1" si="12"/>
+        <v>=_IR1(H$1)</v>
+      </c>
+      <c r="P20" s="7" t="str">
+        <f t="shared" ca="1" si="13"/>
         <v>=GET(__IR1_mA)</v>
       </c>
-      <c r="P20" s="15" t="str">
+      <c r="Q20" s="7" t="str">
         <f ca="1"/>
         <v>=GET(__IR1_mA)</v>
       </c>
-      <c r="Q20" t="str" cm="1">
-        <f t="array" aca="1" ref="Q20" ca="1">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,N20),FALSE))),"")</f>
-        <v/>
-      </c>
-      <c r="R20" cm="1">
-        <f t="array" ref="R20">_IR3(A$1)</f>
+      <c r="R20" t="str" cm="1">
+        <f t="array" aca="1" ref="R20" ca="1">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,O20),FALSE))),"")</f>
+        <v/>
+      </c>
+      <c r="S20" cm="1">
+        <f t="array" ref="S20">_IR3(A$1)</f>
         <v>4</v>
       </c>
-      <c r="S20" t="e" cm="1">
-        <f t="array" ref="S20">GET(__Calc_IR3_mA)</f>
+      <c r="T20" t="e" cm="1">
+        <f t="array" ref="T20">GET(__Calc_IR3_mA)</f>
         <v>#REF!</v>
       </c>
-      <c r="T20" t="b">
+      <c r="U20" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" cm="1">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" cm="1">
         <f t="array" ref="A21">MyVal(__Ideal_R3,A$1)</f>
         <v>820</v>
       </c>
-      <c r="B21" s="16" t="str">
-        <f t="shared" ca="1" si="5"/>
+      <c r="B21" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v>=MyVal(__Ideal_R3,A$1)</v>
       </c>
-      <c r="C21" s="16" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(R21)</f>
+      <c r="C21" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>=Ideal_R3(A$1)</v>
       </c>
-      <c r="D21" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="D21" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>=GET(__Ideal_R3)</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="14"/>
+      <c r="F21" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="3" cm="1">
-        <f t="array" ref="F21">(MyVal(__VC,F$1)-MyVal(__VG,F$1))/(MyVal(__Calc_IR3_mA,F$1)/1000)</f>
+      <c r="G21" s="26" cm="1">
+        <f t="array" ref="G21">(MyVal(__VC,G$1)-MyVal(__VG,G$1))/(MyVal(__Calc_IR3_mA,G$1)/1000)</f>
         <v>820</v>
       </c>
-      <c r="G21" s="3" cm="1">
-        <f t="array" ref="G21">(VC(G$1)-VG(G$1))/(_IR3(G$1)/1000)</f>
+      <c r="H21" s="26" cm="1">
+        <f t="array" ref="H21">(VC(H$1)-VG(H$1))/(_IR3(H$1)/1000)</f>
         <v>820</v>
       </c>
-      <c r="H21" s="3" cm="1">
-        <f t="array" ref="H21">(GET(__VC)-GET(__VG))/(GET(__Calc_IR3_mA)/1000)</f>
+      <c r="I21" s="26" cm="1">
+        <f t="array" ref="I21">(GET(__VC)-GET(__VG))/(GET(__Calc_IR3_mA)/1000)</f>
         <v>820</v>
       </c>
-      <c r="I21" s="3">
-        <f>(I19-I6)/(I20/1000)</f>
+      <c r="J21" s="26">
+        <f>(J19-J6)/(J20/1000)</f>
         <v>820</v>
       </c>
-      <c r="J21" s="3" t="e">
-        <f t="shared" ref="J21:K21" si="19">(J19-J6)/(J20/1000)</f>
+      <c r="K21" s="26" t="e">
+        <f t="shared" ref="K21:L21" si="20">(K19-K6)/(K20/1000)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K21" s="3" t="e">
-        <f t="shared" si="19"/>
+      <c r="L21" s="27" t="e">
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L21" s="24"/>
-      <c r="M21" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=(MyVal(__VC,F$1)-MyVal(__VG,F$1))/(MyVal(__Calc_IR3_mA,F$1)/1000)</v>
-      </c>
-      <c r="N21" s="15" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>=(VC(G$1)-VG(G$1))/(_IR3(G$1)/1000)</v>
-      </c>
-      <c r="O21" s="15" t="str">
+      <c r="M21" s="14"/>
+      <c r="N21" s="7" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>=(MyVal(__VC,G$1)-MyVal(__VG,G$1))/(MyVal(__Calc_IR3_mA,G$1)/1000)</v>
+      </c>
+      <c r="O21" s="7" t="str">
         <f t="shared" ca="1" si="12"/>
+        <v>=(VC(H$1)-VG(H$1))/(_IR3(H$1)/1000)</v>
+      </c>
+      <c r="P21" s="7" t="str">
+        <f t="shared" ca="1" si="13"/>
         <v>=(GET(__VC)-GET(__VG))/(GET(__Calc_IR3_mA)/1000)</v>
       </c>
-      <c r="P21" s="15" t="str">
+      <c r="Q21" s="7" t="str">
         <f ca="1"/>
         <v>=(GET(__VC)-GET(__VG))/(GET(__Calc_IR3_mA)/1000)</v>
       </c>
-      <c r="Q21" t="str" cm="1">
-        <f t="array" aca="1" ref="Q21" ca="1">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,N21),FALSE))),"")</f>
-        <v/>
-      </c>
-      <c r="R21" cm="1">
-        <f t="array" ref="R21">Ideal_R3(A$1)</f>
+      <c r="R21" t="str" cm="1">
+        <f t="array" aca="1" ref="R21" ca="1">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,O21),FALSE))),"")</f>
+        <v/>
+      </c>
+      <c r="S21" cm="1">
+        <f t="array" ref="S21">Ideal_R3(A$1)</f>
         <v>820</v>
       </c>
-      <c r="S21" t="e" cm="1">
-        <f t="array" ref="S21">GET(__Ideal_R3)</f>
+      <c r="T21" t="e" cm="1">
+        <f t="array" ref="T21">GET(__Ideal_R3)</f>
         <v>#REF!</v>
       </c>
-      <c r="T21" t="b">
+      <c r="U21" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" cm="1">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" cm="1">
         <f t="array" ref="A22">MyVal(__Ideal_R4,A$1)</f>
         <v>620.00000000000011</v>
       </c>
-      <c r="B22" s="16" t="str">
-        <f t="shared" ca="1" si="5"/>
+      <c r="B22" s="8" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v>=MyVal(__Ideal_R4,A$1)</v>
       </c>
-      <c r="C22" s="16" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(R22)</f>
+      <c r="C22" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>=Ideal_R4(A$1)</v>
       </c>
-      <c r="D22" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="D22" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>=GET(__Ideal_R4)</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="14"/>
+      <c r="F22" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="3" cm="1">
-        <f t="array" ref="F22">(MyVal(__VG,F$1)-MyVal(__VEE,F$1))/(MyVal(__Calc_IR3_mA,F$1)/1000)</f>
+      <c r="G22" s="26" cm="1">
+        <f t="array" ref="G22">(MyVal(__VG,G$1)-MyVal(__VEE,G$1))/(MyVal(__Calc_IR3_mA,G$1)/1000)</f>
         <v>620.00000000000011</v>
       </c>
-      <c r="G22" s="3" cm="1">
-        <f t="array" ref="G22">(VG(G$1)-VEE(G$1))/(_IR3(G$1)/1000)</f>
+      <c r="H22" s="26" cm="1">
+        <f t="array" ref="H22">(VG(H$1)-VEE(H$1))/(_IR3(H$1)/1000)</f>
         <v>620.00000000000011</v>
       </c>
-      <c r="H22" s="3" cm="1">
-        <f t="array" ref="H22">(GET(__VG)-GET(__VEE))/(GET(__Calc_IR3_mA)/1000)</f>
+      <c r="I22" s="26" cm="1">
+        <f t="array" ref="I22">(GET(__VG)-GET(__VEE))/(GET(__Calc_IR3_mA)/1000)</f>
         <v>620.00000000000011</v>
       </c>
-      <c r="I22" s="3">
-        <f>(I6-I3)/(I20/1000)</f>
+      <c r="J22" s="26">
+        <f>(J6-J3)/(J20/1000)</f>
         <v>620.00000000000011</v>
       </c>
-      <c r="J22" s="3" t="e">
-        <f t="shared" ref="J22:K22" si="20">(J6-J3)/(J20/1000)</f>
+      <c r="K22" s="26" t="e">
+        <f t="shared" ref="K22:L22" si="21">(K6-K3)/(K20/1000)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K22" s="3" t="e">
-        <f t="shared" si="20"/>
+      <c r="L22" s="27" t="e">
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L22" s="24"/>
-      <c r="M22" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=(MyVal(__VG,F$1)-MyVal(__VEE,F$1))/(MyVal(__Calc_IR3_mA,F$1)/1000)</v>
-      </c>
-      <c r="N22" s="15" t="str">
-        <f t="shared" ca="1" si="11"/>
-        <v>=(VG(G$1)-VEE(G$1))/(_IR3(G$1)/1000)</v>
-      </c>
-      <c r="O22" s="15" t="str">
+      <c r="M22" s="14"/>
+      <c r="N22" s="7" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>=(MyVal(__VG,G$1)-MyVal(__VEE,G$1))/(MyVal(__Calc_IR3_mA,G$1)/1000)</v>
+      </c>
+      <c r="O22" s="7" t="str">
         <f t="shared" ca="1" si="12"/>
+        <v>=(VG(H$1)-VEE(H$1))/(_IR3(H$1)/1000)</v>
+      </c>
+      <c r="P22" s="7" t="str">
+        <f t="shared" ca="1" si="13"/>
         <v>=(GET(__VG)-GET(__VEE))/(GET(__Calc_IR3_mA)/1000)</v>
       </c>
-      <c r="P22" s="15" t="str">
+      <c r="Q22" s="7" t="str">
         <f ca="1"/>
         <v>=(GET(__VG)-GET(__VEE))/(GET(__Calc_IR3_mA)/1000)</v>
       </c>
-      <c r="Q22" t="str" cm="1">
-        <f t="array" aca="1" ref="Q22" ca="1">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,N22),FALSE))),"")</f>
-        <v/>
-      </c>
-      <c r="R22" cm="1">
-        <f t="array" ref="R22">Ideal_R4(A$1)</f>
+      <c r="R22" t="str" cm="1">
+        <f t="array" aca="1" ref="R22" ca="1">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,O22),FALSE))),"")</f>
+        <v/>
+      </c>
+      <c r="S22" cm="1">
+        <f t="array" ref="S22">Ideal_R4(A$1)</f>
         <v>620.00000000000011</v>
       </c>
-      <c r="S22" t="e" cm="1">
-        <f t="array" ref="S22">GET(__Ideal_R4)</f>
+      <c r="T22" t="e" cm="1">
+        <f t="array" ref="T22">GET(__Ideal_R4)</f>
         <v>#REF!</v>
       </c>
-      <c r="T22" t="b">
+      <c r="U22" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" cm="1">
+    <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" cm="1">
         <f t="array" ref="A23">MyVal(__VMB,A$1)</f>
         <v>3.8094000000000001</v>
       </c>
-      <c r="B23" s="16" t="str">
+      <c r="B23" s="8" t="str">
         <f ca="1">_xlfn.FORMULATEXT(A23)</f>
         <v>=MyVal(__VMB,A$1)</v>
       </c>
-      <c r="C23" s="16" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(R23)</f>
+      <c r="C23" s="8" t="str">
+        <f t="shared" ca="1" si="1"/>
         <v>=VMB(A$1)</v>
       </c>
-      <c r="D23" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="D23" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>=GET(__VMB)</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="14"/>
+      <c r="F23" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="3" cm="1">
-        <f t="array" ref="F23">MyVal(__VCC,F$1)-(MyVal(__Selected_R1,F$1)*(MyVal(__Calc_IR1_mA,F$1)/1000))-MyVal(__VEB_Q2,F$1)</f>
+      <c r="G23" s="26" cm="1">
+        <f t="array" ref="G23">MyVal(__VCC,G$1)-(MyVal(__Selected_R1,G$1)*(MyVal(__Calc_IR1_mA,G$1)/1000))-MyVal(__VEB_Q2,G$1)</f>
         <v>3.8094000000000001</v>
       </c>
-      <c r="G23" s="3" cm="1">
-        <f t="array" ref="G23">VCC(G$1)-(_R1(G$1)*(_IR1(G$1)/1000))-VEB_Q2(G$1)</f>
+      <c r="H23" s="26" cm="1">
+        <f t="array" ref="H23">VCC(H$1)-(_R1(H$1)*(_IR1(H$1)/1000))-VEB_Q2(H$1)</f>
         <v>3.8094000000000001</v>
       </c>
-      <c r="H23" s="3" cm="1">
-        <f t="array" ref="H23">GET(__VCC)-(GET(__Selected_R1)*(GET(__Calc_IR1_mA)/1000))-GET(__VEB_Q2)</f>
+      <c r="I23" s="26" cm="1">
+        <f t="array" ref="I23">GET(__VCC)-(GET(__Selected_R1)*(GET(__Calc_IR1_mA)/1000))-GET(__VEB_Q2)</f>
         <v>3.8094000000000001</v>
       </c>
-      <c r="I23" s="3">
-        <f>I2-(I13*(I15/1000))-I27</f>
+      <c r="J23" s="26">
+        <f>J2-(J13*(J15/1000))-J27</f>
         <v>3.8094000000000001</v>
       </c>
-      <c r="J23" s="3" t="e">
-        <f t="shared" ref="J23:K23" si="21">J2-(J13*(J15/1000))-J27</f>
+      <c r="K23" s="26" t="e">
+        <f t="shared" ref="K23:L23" si="22">K2-(K13*(K15/1000))-K27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K23" s="3" t="e">
-        <f t="shared" si="21"/>
+      <c r="L23" s="27" t="e">
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L23" s="24"/>
-      <c r="M23" s="15" t="str">
-        <f t="shared" ref="M23" ca="1" si="22">_xlfn.IFNA(_xlfn.FORMULATEXT(F23),"")</f>
-        <v>=MyVal(__VCC,F$1)-(MyVal(__Selected_R1,F$1)*(MyVal(__Calc_IR1_mA,F$1)/1000))-MyVal(__VEB_Q2,F$1)</v>
-      </c>
-      <c r="N23" s="15" t="str">
+      <c r="M23" s="14"/>
+      <c r="N23" s="7" t="str">
         <f t="shared" ref="N23" ca="1" si="23">_xlfn.IFNA(_xlfn.FORMULATEXT(G23),"")</f>
-        <v>=VCC(G$1)-(_R1(G$1)*(_IR1(G$1)/1000))-VEB_Q2(G$1)</v>
-      </c>
-      <c r="O23" s="15" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <v>=MyVal(__VCC,G$1)-(MyVal(__Selected_R1,G$1)*(MyVal(__Calc_IR1_mA,G$1)/1000))-MyVal(__VEB_Q2,G$1)</v>
+      </c>
+      <c r="O23" s="7" t="str">
+        <f t="shared" ref="O23" ca="1" si="24">_xlfn.IFNA(_xlfn.FORMULATEXT(H23),"")</f>
+        <v>=VCC(H$1)-(_R1(H$1)*(_IR1(H$1)/1000))-VEB_Q2(H$1)</v>
+      </c>
+      <c r="P23" s="7" t="str">
+        <f t="shared" ca="1" si="13"/>
         <v>=GET(__VCC)-(GET(__Selected_R1)*(GET(__Calc_IR1_mA)/1000))-GET(__VEB_Q2)</v>
       </c>
-      <c r="P23" s="15" t="str">
+      <c r="Q23" s="7" t="str">
         <f ca="1"/>
         <v>=GET(__VCC)-(GET(__Selected_R1)*(GET(__Calc_IR1_mA)/1000))-GET(__VEB_Q2)</v>
       </c>
-      <c r="Q23" t="str" cm="1">
-        <f t="array" aca="1" ref="Q23" ca="1">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,N23),FALSE))),"")</f>
-        <v/>
-      </c>
-      <c r="R23" cm="1">
-        <f t="array" ref="R23">VMB(A$1)</f>
+      <c r="R23" t="str" cm="1">
+        <f t="array" aca="1" ref="R23" ca="1">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,O23),FALSE))),"")</f>
+        <v/>
+      </c>
+      <c r="S23" cm="1">
+        <f t="array" ref="S23">VMB(A$1)</f>
         <v>3.8094000000000001</v>
       </c>
-      <c r="S23" t="e" cm="1">
-        <f t="array" ref="S23">GET(__VMB)</f>
+      <c r="T23" t="e" cm="1">
+        <f t="array" ref="T23">GET(__VMB)</f>
         <v>#REF!</v>
       </c>
-      <c r="T23" t="b">
+      <c r="U23" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="10" t="s">
+    <row r="24" spans="1:21" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="G24" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14" t="str">
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="37"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6" t="str">
         <f ca="1"/>
         <v/>
       </c>
-      <c r="Q24" t="str" cm="1">
-        <f t="array" ref="Q24">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,N24),FALSE))),"")</f>
-        <v/>
-      </c>
-      <c r="T24" t="b">
+      <c r="R24" t="str" cm="1">
+        <f t="array" ref="R24">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,O24),FALSE))),"")</f>
+        <v/>
+      </c>
+      <c r="U24" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" cm="1">
+    <row r="25" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" cm="1">
         <f t="array" ref="A25">MyVal(__VDS_Q3,A$1)</f>
         <v>0.01</v>
       </c>
-      <c r="B25" s="16" t="str">
-        <f t="shared" ref="B25:B28" ca="1" si="24">_xlfn.FORMULATEXT(A25)</f>
+      <c r="B25" s="8" t="str">
+        <f t="shared" ref="B25:B28" ca="1" si="25">_xlfn.FORMULATEXT(A25)</f>
         <v>=MyVal(__VDS_Q3,A$1)</v>
       </c>
-      <c r="C25" s="16" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(R25)</f>
+      <c r="C25" s="8" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(S25)</f>
         <v>=VDS_Q3(A$1)</v>
       </c>
-      <c r="D25" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="D25" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>=GET(__VDS_Q3)</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="14"/>
+      <c r="F25" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="4">
+      <c r="G25" s="22">
         <v>0.01</v>
       </c>
-      <c r="G25" s="4">
+      <c r="H25" s="22">
         <v>0.01</v>
       </c>
-      <c r="H25" s="4">
+      <c r="I25" s="22">
         <v>0.01</v>
       </c>
-      <c r="I25" s="4">
+      <c r="J25" s="22">
         <v>0.01</v>
       </c>
-      <c r="J25" s="4">
+      <c r="K25" s="22">
         <v>0</v>
       </c>
-      <c r="K25" s="4">
+      <c r="L25" s="23">
         <v>0</v>
       </c>
-      <c r="L25" s="24"/>
-      <c r="M25" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="P25" t="str">
+      <c r="M25" s="14"/>
+      <c r="N25" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="Q25" t="str">
         <f ca="1"/>
         <v/>
       </c>
-      <c r="Q25" t="str" cm="1">
-        <f t="array" ref="Q25">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,N25),FALSE))),"")</f>
-        <v/>
-      </c>
-      <c r="R25" cm="1">
-        <f t="array" ref="R25">VDS_Q3(A$1)</f>
+      <c r="R25" t="str" cm="1">
+        <f t="array" ref="R25">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,O25),FALSE))),"")</f>
+        <v/>
+      </c>
+      <c r="S25" cm="1">
+        <f t="array" ref="S25">VDS_Q3(A$1)</f>
         <v>0.01</v>
       </c>
-      <c r="S25" t="e" cm="1">
-        <f t="array" ref="S25">GET(__VDS_Q3)</f>
+      <c r="T25" t="e" cm="1">
+        <f t="array" ref="T25">GET(__VDS_Q3)</f>
         <v>#REF!</v>
       </c>
-      <c r="T25" t="b">
+      <c r="U25" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" cm="1">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" cm="1">
         <f t="array" ref="A26">MyVal(__VEC_Q1,A$1)</f>
         <v>1.94</v>
       </c>
-      <c r="B26" s="16" t="str">
-        <f t="shared" ca="1" si="24"/>
+      <c r="B26" s="8" t="str">
+        <f t="shared" ca="1" si="25"/>
         <v>=MyVal(__VEC_Q1,A$1)</v>
       </c>
-      <c r="C26" s="16" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(R26)</f>
+      <c r="C26" s="8" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(S26)</f>
         <v>=VEC_Q1(A$1)</v>
       </c>
-      <c r="D26" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="D26" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>=GET(__VEC_Q1)</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="14"/>
+      <c r="F26" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="4">
+      <c r="G26" s="22">
         <v>1.94</v>
       </c>
-      <c r="G26" s="4">
+      <c r="H26" s="22">
         <v>1.94</v>
       </c>
-      <c r="H26" s="4">
+      <c r="I26" s="22">
         <v>1.94</v>
       </c>
-      <c r="I26" s="4">
+      <c r="J26" s="22">
         <v>1.94</v>
       </c>
-      <c r="J26" s="4">
+      <c r="K26" s="22">
         <v>0</v>
       </c>
-      <c r="K26" s="4">
+      <c r="L26" s="23">
         <v>0</v>
       </c>
-      <c r="L26" s="24"/>
-      <c r="M26" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="P26" t="str">
+      <c r="M26" s="14"/>
+      <c r="Q26" t="str">
         <f ca="1"/>
         <v/>
       </c>
-      <c r="Q26" t="str" cm="1">
-        <f t="array" ref="Q26">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,N26),FALSE))),"")</f>
-        <v/>
-      </c>
-      <c r="R26" cm="1">
-        <f t="array" ref="R26">VEC_Q1(A$1)</f>
+      <c r="R26" t="str" cm="1">
+        <f t="array" ref="R26">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,O26),FALSE))),"")</f>
+        <v/>
+      </c>
+      <c r="S26" cm="1">
+        <f t="array" ref="S26">VEC_Q1(A$1)</f>
         <v>1.94</v>
       </c>
-      <c r="S26" t="e" cm="1">
-        <f t="array" ref="S26">GET(__VEC_Q1)</f>
+      <c r="T26" t="e" cm="1">
+        <f t="array" ref="T26">GET(__VEC_Q1)</f>
         <v>#REF!</v>
       </c>
-      <c r="T26" t="b">
+      <c r="U26" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" cm="1">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" cm="1">
         <f t="array" ref="A27">MyVal(__VEB_Q2,A$1)</f>
         <v>0.7</v>
       </c>
-      <c r="B27" s="16" t="str">
+      <c r="B27" s="8" t="str">
         <f ca="1">_xlfn.FORMULATEXT(A27)</f>
         <v>=MyVal(__VEB_Q2,A$1)</v>
       </c>
-      <c r="C27" s="16" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(R27)</f>
+      <c r="C27" s="8" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(S27)</f>
         <v>=VEB_Q2(A$1)</v>
       </c>
-      <c r="D27" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="D27" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>=GET(__VEB_Q2)</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="14"/>
+      <c r="F27" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="4">
+      <c r="G27" s="22">
         <v>0.7</v>
       </c>
-      <c r="G27" s="4">
+      <c r="H27" s="22">
         <v>0.7</v>
       </c>
-      <c r="H27" s="4">
+      <c r="I27" s="22">
         <v>0.7</v>
       </c>
-      <c r="I27" s="4">
+      <c r="J27" s="22">
         <v>0.7</v>
       </c>
-      <c r="J27" s="4">
+      <c r="K27" s="22">
         <v>0</v>
       </c>
-      <c r="K27" s="4">
+      <c r="L27" s="23">
         <v>0</v>
       </c>
-      <c r="L27" s="24"/>
-      <c r="M27" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v/>
-      </c>
-      <c r="P27" t="str">
+      <c r="M27" s="14"/>
+      <c r="N27" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v/>
+      </c>
+      <c r="Q27" t="str">
         <f ca="1"/>
         <v/>
       </c>
-      <c r="Q27" t="str" cm="1">
-        <f t="array" ref="Q27">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,N27),FALSE))),"")</f>
-        <v/>
-      </c>
-      <c r="R27" cm="1">
-        <f t="array" ref="R27">VEB_Q2(A$1)</f>
+      <c r="R27" t="str" cm="1">
+        <f t="array" ref="R27">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,O27),FALSE))),"")</f>
+        <v/>
+      </c>
+      <c r="S27" cm="1">
+        <f t="array" ref="S27">VEB_Q2(A$1)</f>
         <v>0.7</v>
       </c>
-      <c r="S27" t="e" cm="1">
-        <f t="array" ref="S27">GET(__VEB_Q2)</f>
+      <c r="T27" t="e" cm="1">
+        <f t="array" ref="T27">GET(__VEB_Q2)</f>
         <v>#REF!</v>
       </c>
-      <c r="T27" t="b">
+      <c r="U27" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" cm="1">
+    <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" cm="1">
         <f t="array" ref="A28">MyVal(__VEC_Q2,A$1)</f>
         <v>0.7</v>
       </c>
-      <c r="B28" s="16" t="str">
-        <f t="shared" ca="1" si="24"/>
+      <c r="B28" s="8" t="str">
+        <f t="shared" ca="1" si="25"/>
         <v>=MyVal(__VEC_Q2,A$1)</v>
       </c>
-      <c r="C28" s="16" t="str">
-        <f ca="1">_xlfn.FORMULATEXT(R28)</f>
+      <c r="C28" s="8" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(S28)</f>
         <v>=VEC_Q2(A$1)</v>
       </c>
-      <c r="D28" s="16" t="str">
-        <f t="shared" ca="1" si="1"/>
+      <c r="D28" s="8" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>=GET(__VEC_Q2)</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="14"/>
+      <c r="F28" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="3" cm="1">
-        <f t="array" ref="F28">MyVal(__VEB_Q2,F$1)</f>
+      <c r="G28" s="39" cm="1">
+        <f t="array" ref="G28">MyVal(__VEB_Q2,G$1)</f>
         <v>0.7</v>
       </c>
-      <c r="G28" s="3" cm="1">
-        <f t="array" ref="G28">VEB_Q2(G$1)</f>
+      <c r="H28" s="39" cm="1">
+        <f t="array" ref="H28">VEB_Q2(H$1)</f>
         <v>0.7</v>
       </c>
-      <c r="H28" s="3" cm="1">
-        <f t="array" ref="H28">GET(__VEB_Q2)</f>
+      <c r="I28" s="39" cm="1">
+        <f t="array" ref="I28">GET(__VEB_Q2)</f>
         <v>0.7</v>
       </c>
-      <c r="I28" s="3">
-        <f t="shared" ref="I28:K28" si="25">I27</f>
+      <c r="J28" s="39">
+        <f t="shared" ref="J28:L28" si="26">J27</f>
         <v>0.7</v>
       </c>
-      <c r="J28" s="3">
-        <f t="shared" si="25"/>
+      <c r="K28" s="39">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="K28" s="3">
-        <f t="shared" si="25"/>
+      <c r="L28" s="40">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="L28" s="24"/>
-      <c r="M28" s="15" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>=MyVal(__VEB_Q2,F$1)</v>
-      </c>
-      <c r="N28" s="15" t="str">
-        <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(G28),"")</f>
-        <v>=VEB_Q2(G$1)</v>
-      </c>
-      <c r="O28" s="15" t="str">
+      <c r="M28" s="14"/>
+      <c r="N28" s="7" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>=MyVal(__VEB_Q2,G$1)</v>
+      </c>
+      <c r="O28" s="7" t="str">
         <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(H28),"")</f>
+        <v>=VEB_Q2(H$1)</v>
+      </c>
+      <c r="P28" s="7" t="str">
+        <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(I28),"")</f>
         <v>=GET(__VEB_Q2)</v>
       </c>
-      <c r="P28" s="15" t="str">
+      <c r="Q28" s="7" t="str">
         <f ca="1"/>
         <v>=GET(__VEB_Q2)</v>
       </c>
-      <c r="Q28" t="str" cm="1">
-        <f t="array" aca="1" ref="Q28" ca="1">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,N28),FALSE))),"")</f>
-        <v/>
-      </c>
-      <c r="R28" cm="1">
-        <f t="array" ref="R28">VEC_Q2(A$1)</f>
+      <c r="R28" t="str" cm="1">
+        <f t="array" aca="1" ref="R28" ca="1">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,O28),FALSE))),"")</f>
+        <v/>
+      </c>
+      <c r="S28" cm="1">
+        <f t="array" ref="S28">VEC_Q2(A$1)</f>
         <v>0.7</v>
       </c>
-      <c r="S28" t="e" cm="1">
-        <f t="array" ref="S28">GET(__VEC_Q2)</f>
+      <c r="T28" t="e" cm="1">
+        <f t="array" ref="T28">GET(__VEC_Q2)</f>
         <v>#REF!</v>
       </c>
-      <c r="T28" t="b">
+      <c r="U28" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="24" x14ac:dyDescent="0.4">
-      <c r="B30" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
+    <row r="30" spans="1:21" ht="24" x14ac:dyDescent="0.4">
+      <c r="B30" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
     </row>
-    <row r="31" spans="1:20" ht="24" x14ac:dyDescent="0.4">
-      <c r="B31" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
+    <row r="31" spans="1:21" ht="24" x14ac:dyDescent="0.4">
+      <c r="B31" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
     </row>
-    <row r="32" spans="1:20" ht="24" x14ac:dyDescent="0.4">
-      <c r="B32" s="25"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+    <row r="32" spans="1:21" ht="24" x14ac:dyDescent="0.4">
+      <c r="B32" s="15"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E34" s="2" t="s">
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="1" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="F19:L19">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
-      <formula>$F$23-#REF!</formula>
+  <conditionalFormatting sqref="G19:M19">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
+      <formula>$G$23-#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>$G$23-#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3033,7 +3244,7 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <Ts>
-  <T C="16777215" N="Mirror Calculations" G="" P="False" K="4fa6cfc8-affc-49a9-adba-f661329a05c7:2342310263904" T="Worksheet" PI="0" L="" D="" A="638568052503416768" I="1"/>
+  <T C="16777215" N="Mirror Calculations" G="" P="False" K="d4874797-0137-4d62-b255-af1972eafb01:2071459801184" T="Worksheet" PI="0" L="" D="" A="638568061962130072" I="1"/>
 </Ts>
 </file>
 
@@ -3062,47 +3273,47 @@
 </file>
 
 <file path=customXml/item7.xml><?xml version="1.0" encoding="utf-8"?>
-<Es LastSaved="2024-07-17 02:35:47"/>
+<Es LastSaved="2024-07-17 02:45:18"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B53184D-032D-4EF5-BEDE-ED561CDAA76C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1692BEE-8F83-41D3-98F3-74DD06ADF8F2}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40CB862B-112E-428D-ACF3-F1642AAED93B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25C186CD-0F15-4080-A1D1-9485816C0E04}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CDC35CD-35AF-493F-BBFC-4A75ADB683F4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DC63C3E-A8EA-4BEC-9C3D-FADD4E9FC613}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF731BBF-B108-4BF3-86AE-FF8CB2C1B781}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F73C2C3-53C9-4370-A00F-7E9021DD283D}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9A5918B-74C1-44F1-AC83-B531D78A3518}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC1B8E3A-42D5-4E38-8F3A-630D45A2E2A9}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89E57E5B-670A-4D59-8325-38A80AAF00E6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED409072-5765-4960-93BE-F50A8AC80E81}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps7.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0630F9C-11E3-42BE-86BB-7FF742D9AFA9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16B97E87-4978-430D-886D-BB1A5C151F71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/SU1050791/Using Excel LAMBDAs to mimic transposed table.xlsx
+++ b/SU1050791/Using Excel LAMBDAs to mimic transposed table.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52219A53-1FFD-44EE-8914-9512E8089163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DEF73F-6E57-4F10-ADB3-A9F0751B2D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2370" yWindow="855" windowWidth="47445" windowHeight="19155" xr2:uid="{0F74DA79-CFAD-4F6F-B22B-648A2D487A97}"/>
   </bookViews>
@@ -1199,9 +1199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79715815-7508-4051-9140-8EE00FCAA99A}">
   <dimension ref="A1:X34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1216,7 +1214,7 @@
     <col min="14" max="14" width="136.42578125" customWidth="1"/>
     <col min="15" max="15" width="77" customWidth="1"/>
     <col min="16" max="16" width="105.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="38.28515625" customWidth="1"/>
+    <col min="17" max="17" width="41.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1327,7 +1325,7 @@
         <v/>
       </c>
       <c r="Q2" t="str" cm="1">
-        <f t="array" aca="1" ref="Q2:Q28" ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(I2:I28),"")</f>
+        <f t="array" aca="1" ref="Q2:Q28" ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(J2:J28),"")</f>
         <v/>
       </c>
       <c r="R2" t="str" cm="1">
@@ -1735,7 +1733,7 @@
       </c>
       <c r="Q8" s="7" t="str">
         <f ca="1"/>
-        <v>=GET(__Target_Load_mA)+GET(__IR1_mA)</v>
+        <v>=J7+J5</v>
       </c>
       <c r="R8" t="str" cm="1">
         <f t="array" aca="1" ref="R8" ca="1">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,O8),FALSE))),"")</f>
@@ -1821,7 +1819,7 @@
       </c>
       <c r="Q9" s="7" t="str">
         <f ca="1"/>
-        <v>=GET(__Target_IR2_mA)/GET(__IR1_mA)</v>
+        <v>=J8/J7</v>
       </c>
       <c r="R9" t="str" cm="1">
         <f t="array" aca="1" ref="R9" ca="1">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,O9),FALSE))),"")</f>
@@ -1899,7 +1897,7 @@
       </c>
       <c r="Q10" s="7" t="str">
         <f ca="1"/>
-        <v>=(GET(__VCC)-GET(__VD))/(GET(__Target_IR2_mA)/1000)</v>
+        <v>=(J2-J4)/(J8/1000)</v>
       </c>
       <c r="R10" t="str" cm="1">
         <f t="array" aca="1" ref="R10" ca="1">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,O10),FALSE))),"")</f>
@@ -2041,7 +2039,7 @@
       </c>
       <c r="Q12" s="7" t="str">
         <f ca="1"/>
-        <v>=GET(__Target_R_Ratio)*GET(__Selected_R2)</v>
+        <v>=J9*J11</v>
       </c>
       <c r="R12" t="str" cm="1">
         <f t="array" aca="1" ref="R12" ca="1">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,O12),FALSE))),"")</f>
@@ -2183,7 +2181,7 @@
       </c>
       <c r="Q14" s="7" t="str">
         <f ca="1"/>
-        <v>=(GET(__VCC)-GET(__VEC_Q2)-GET(__VDS_Q3)-(GET(__IR1_mA)/1000*GET(__Selected_R1)))/(GET(__IR1_mA)/1000)</v>
+        <v>=(J2-J28-J25-(J7/1000*J13))/(J7/1000)</v>
       </c>
       <c r="R14" t="str" cm="1">
         <f t="array" aca="1" ref="R14" ca="1">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,O14),FALSE))),"")</f>
@@ -2261,7 +2259,7 @@
       </c>
       <c r="Q15" s="7" t="str">
         <f ca="1"/>
-        <v>=(GET(__VCC)-GET(__VEC_Q2)-GET(__VDS_Q3))/(GET(__Selected_R1)+GET(__Ideal_R5))*1000</v>
+        <v>=(J2-J28-J25)/(J13+J14)*1000</v>
       </c>
       <c r="R15" t="str" cm="1">
         <f t="array" aca="1" ref="R15" ca="1">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,O15),FALSE))),"")</f>
@@ -2339,7 +2337,7 @@
       </c>
       <c r="Q16" s="7" t="str">
         <f ca="1"/>
-        <v>=IFERROR(GET(__Selected_R1)/GET(__Selected_R2),NA())</v>
+        <v>=IFERROR(J13/J11,NA())</v>
       </c>
       <c r="R16" t="str" cm="1">
         <f t="array" aca="1" ref="R16" ca="1">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,O16),FALSE))),"")</f>
@@ -2417,7 +2415,7 @@
       </c>
       <c r="Q17" s="7" t="str">
         <f ca="1"/>
-        <v>=IFERROR(GET(__Calc_IR1_mA)*(GET(__Actual_R_Ratio)-1),NA())</v>
+        <v>=IFERROR(J15*(J16-1),NA())</v>
       </c>
       <c r="R17" t="str" cm="1">
         <f t="array" aca="1" ref="R17" ca="1">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,O17),FALSE))),"")</f>
@@ -2495,7 +2493,7 @@
       </c>
       <c r="Q18" s="7" t="str">
         <f ca="1"/>
-        <v>=(GET(__Target_IR2_mA)/1000)^2*GET(__Selected_R2)</v>
+        <v>=(J8/1000)^2*J11</v>
       </c>
       <c r="R18" t="str" cm="1">
         <f t="array" aca="1" ref="R18" ca="1">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,O18),FALSE))),"")</f>
@@ -2573,7 +2571,7 @@
       </c>
       <c r="Q19" s="7" t="str">
         <f ca="1"/>
-        <v>=GET(__VD)-GET(__VEC_Q1)</v>
+        <v>=J4-J26</v>
       </c>
       <c r="R19" t="str" cm="1">
         <f t="array" aca="1" ref="R19" ca="1">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,O19),FALSE))),"")</f>
@@ -2651,7 +2649,7 @@
       </c>
       <c r="Q20" s="7" t="str">
         <f ca="1"/>
-        <v>=GET(__IR1_mA)</v>
+        <v>=J7</v>
       </c>
       <c r="R20" t="str" cm="1">
         <f t="array" aca="1" ref="R20" ca="1">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,O20),FALSE))),"")</f>
@@ -2729,7 +2727,7 @@
       </c>
       <c r="Q21" s="7" t="str">
         <f ca="1"/>
-        <v>=(GET(__VC)-GET(__VG))/(GET(__Calc_IR3_mA)/1000)</v>
+        <v>=(J19-J6)/(J20/1000)</v>
       </c>
       <c r="R21" t="str" cm="1">
         <f t="array" aca="1" ref="R21" ca="1">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,O21),FALSE))),"")</f>
@@ -2807,7 +2805,7 @@
       </c>
       <c r="Q22" s="7" t="str">
         <f ca="1"/>
-        <v>=(GET(__VG)-GET(__VEE))/(GET(__Calc_IR3_mA)/1000)</v>
+        <v>=(J6-J3)/(J20/1000)</v>
       </c>
       <c r="R22" t="str" cm="1">
         <f t="array" aca="1" ref="R22" ca="1">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,O22),FALSE))),"")</f>
@@ -2885,7 +2883,7 @@
       </c>
       <c r="Q23" s="7" t="str">
         <f ca="1"/>
-        <v>=GET(__VCC)-(GET(__Selected_R1)*(GET(__Calc_IR1_mA)/1000))-GET(__VEB_Q2)</v>
+        <v>=J2-(J13*(J15/1000))-J27</v>
       </c>
       <c r="R23" t="str" cm="1">
         <f t="array" aca="1" ref="R23" ca="1">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,O23),FALSE))),"")</f>
@@ -3182,7 +3180,7 @@
       </c>
       <c r="Q28" s="7" t="str">
         <f ca="1"/>
-        <v>=GET(__VEB_Q2)</v>
+        <v>=J27</v>
       </c>
       <c r="R28" t="str" cm="1">
         <f t="array" aca="1" ref="R28" ca="1">IFERROR(_xlfn.TEXTJOIN(", ",TRUE,_xlfn._xlws.FILTER("F"&amp;ROW(#REF!),IFERROR(FIND(#REF!,O28),FALSE))),"")</f>
@@ -3273,47 +3271,47 @@
 </file>
 
 <file path=customXml/item7.xml><?xml version="1.0" encoding="utf-8"?>
-<Es LastSaved="2024-07-17 02:45:18"/>
+<Es LastSaved="2024-07-17 02:54:13"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1692BEE-8F83-41D3-98F3-74DD06ADF8F2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{420E6173-570F-45CD-A3B3-E789AFA84D13}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25C186CD-0F15-4080-A1D1-9485816C0E04}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{184D89B9-6DE1-4FEF-8BD3-0EB3AD6EBC70}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DC63C3E-A8EA-4BEC-9C3D-FADD4E9FC613}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36B59A0B-37C5-4748-8AF3-B019935AB456}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F73C2C3-53C9-4370-A00F-7E9021DD283D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{040624B3-DF92-4D4A-BB50-9F3EE0C5CA7C}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC1B8E3A-42D5-4E38-8F3A-630D45A2E2A9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6405B93D-26D4-4118-A451-8172D56640AF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED409072-5765-4960-93BE-F50A8AC80E81}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19E1C854-62F4-4F3A-BCE4-F69E5F2BD738}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps7.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16B97E87-4978-430D-886D-BB1A5C151F71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B1EC9B5-F543-4A32-9D88-6EBF007213A0}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>